--- a/raw_data/20200818_saline/20200818_Sensor2_Test_10.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_10.xlsx
@@ -1,6372 +1,6788 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543758A5-7138-4A0F-8F75-C236390032A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>8469.154815</v>
+        <v>8469.1548149999999</v>
       </c>
       <c r="B2" s="1">
-        <v>2.352543</v>
+        <v>2.3525429999999998</v>
       </c>
       <c r="C2" s="1">
-        <v>1242.580000</v>
+        <v>1242.58</v>
       </c>
       <c r="D2" s="1">
-        <v>-304.042000</v>
+        <v>-304.04199999999997</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>8479.832198</v>
+        <v>8479.8321980000001</v>
       </c>
       <c r="G2" s="1">
-        <v>2.355509</v>
+        <v>2.3555090000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1267.700000</v>
+        <v>1267.7</v>
       </c>
       <c r="I2" s="1">
-        <v>-263.005000</v>
+        <v>-263.005</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>8490.206484</v>
+        <v>8490.2064840000003</v>
       </c>
       <c r="L2" s="1">
-        <v>2.358391</v>
+        <v>2.3583910000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1303.950000</v>
+        <v>1303.95</v>
       </c>
       <c r="N2" s="1">
-        <v>-202.060000</v>
+        <v>-202.06</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>8500.648758</v>
+        <v>8500.6487579999994</v>
       </c>
       <c r="Q2" s="1">
         <v>2.361291</v>
       </c>
       <c r="R2" s="1">
-        <v>1315.590000</v>
+        <v>1315.59</v>
       </c>
       <c r="S2" s="1">
-        <v>-184.346000</v>
+        <v>-184.346</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>8511.216056</v>
+        <v>8511.2160559999993</v>
       </c>
       <c r="V2" s="1">
-        <v>2.364227</v>
+        <v>2.3642270000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1329.010000</v>
+        <v>1329.01</v>
       </c>
       <c r="X2" s="1">
-        <v>-171.200000</v>
+        <v>-171.2</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>8521.644906</v>
+        <v>8521.6449059999995</v>
       </c>
       <c r="AA2" s="1">
         <v>2.367124</v>
       </c>
       <c r="AB2" s="1">
-        <v>1346.370000</v>
+        <v>1346.37</v>
       </c>
       <c r="AC2" s="1">
-        <v>-169.082000</v>
+        <v>-169.08199999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>8532.529613</v>
+        <v>8532.5296130000006</v>
       </c>
       <c r="AF2" s="1">
-        <v>2.370147</v>
+        <v>2.3701469999999998</v>
       </c>
       <c r="AG2" s="1">
-        <v>1359.760000</v>
+        <v>1359.76</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.930000</v>
+        <v>-178.93</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>8542.970398</v>
+        <v>8542.9703979999995</v>
       </c>
       <c r="AK2" s="1">
-        <v>2.373047</v>
+        <v>2.3730470000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1380.420000</v>
+        <v>1380.42</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.307000</v>
+        <v>-209.30699999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>8553.289340</v>
+        <v>8553.2893399999994</v>
       </c>
       <c r="AP2" s="1">
-        <v>2.375914</v>
+        <v>2.3759139999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1402.100000</v>
+        <v>1402.1</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.599000</v>
+        <v>-253.59899999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>8563.977459</v>
+        <v>8563.9774589999997</v>
       </c>
       <c r="AU2" s="1">
-        <v>2.378883</v>
+        <v>2.3788830000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1426.520000</v>
+        <v>1426.52</v>
       </c>
       <c r="AW2" s="1">
-        <v>-314.214000</v>
+        <v>-314.214</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>8574.772389</v>
+        <v>8574.7723889999997</v>
       </c>
       <c r="AZ2" s="1">
-        <v>2.381881</v>
+        <v>2.3818809999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1445.770000</v>
+        <v>1445.77</v>
       </c>
       <c r="BB2" s="1">
-        <v>-366.815000</v>
+        <v>-366.815</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>8585.412598</v>
+        <v>8585.4125980000008</v>
       </c>
       <c r="BE2" s="1">
-        <v>2.384837</v>
+        <v>2.3848370000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1530.390000</v>
+        <v>1530.39</v>
       </c>
       <c r="BG2" s="1">
-        <v>-617.773000</v>
+        <v>-617.77300000000002</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>8596.077545</v>
+        <v>8596.0775450000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>2.387799</v>
+        <v>2.3877989999999998</v>
       </c>
       <c r="BK2" s="1">
-        <v>1683.480000</v>
+        <v>1683.48</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1069.130000</v>
+        <v>-1069.1300000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>8607.107082</v>
+        <v>8607.1070820000004</v>
       </c>
       <c r="BO2" s="1">
         <v>2.390863</v>
       </c>
       <c r="BP2" s="1">
-        <v>1976.760000</v>
+        <v>1976.76</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1854.030000</v>
+        <v>-1854.03</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>8617.544395</v>
+        <v>8617.5443950000008</v>
       </c>
       <c r="BT2" s="1">
-        <v>2.393762</v>
+        <v>2.3937620000000002</v>
       </c>
       <c r="BU2" s="1">
-        <v>2362.230000</v>
+        <v>2362.23</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2764.000000</v>
+        <v>-2764</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>8628.234670</v>
+        <v>8628.2346699999998</v>
       </c>
       <c r="BY2" s="1">
-        <v>2.396732</v>
+        <v>2.3967320000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2852.120000</v>
+        <v>2852.12</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3758.610000</v>
+        <v>-3758.61</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>8639.133263</v>
+        <v>8639.1332629999997</v>
       </c>
       <c r="CD2" s="1">
         <v>2.399759</v>
       </c>
       <c r="CE2" s="1">
-        <v>4283.620000</v>
+        <v>4283.62</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6158.690000</v>
+        <v>-6158.69</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>8469.853151</v>
+        <v>8469.8531509999993</v>
       </c>
       <c r="B3" s="1">
-        <v>2.352737</v>
+        <v>2.3527369999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1242.020000</v>
+        <v>1242.02</v>
       </c>
       <c r="D3" s="1">
-        <v>-304.575000</v>
+        <v>-304.57499999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>8480.175889</v>
+        <v>8480.1758890000001</v>
       </c>
       <c r="G3" s="1">
         <v>2.355604</v>
       </c>
       <c r="H3" s="1">
-        <v>1268.100000</v>
+        <v>1268.0999999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-263.107000</v>
+        <v>-263.10700000000003</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>8490.553683</v>
+        <v>8490.5536830000001</v>
       </c>
       <c r="L3" s="1">
-        <v>2.358487</v>
+        <v>2.3584870000000002</v>
       </c>
       <c r="M3" s="1">
-        <v>1303.920000</v>
+        <v>1303.92</v>
       </c>
       <c r="N3" s="1">
-        <v>-202.932000</v>
+        <v>-202.93199999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>8501.016789</v>
+        <v>8501.0167889999993</v>
       </c>
       <c r="Q3" s="1">
-        <v>2.361394</v>
+        <v>2.3613940000000002</v>
       </c>
       <c r="R3" s="1">
-        <v>1315.570000</v>
+        <v>1315.57</v>
       </c>
       <c r="S3" s="1">
-        <v>-184.303000</v>
+        <v>-184.303</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>8511.564712</v>
+        <v>8511.5647119999994</v>
       </c>
       <c r="V3" s="1">
-        <v>2.364324</v>
+        <v>2.3643239999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1328.920000</v>
+        <v>1328.92</v>
       </c>
       <c r="X3" s="1">
-        <v>-171.174000</v>
+        <v>-171.17400000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>8522.326410</v>
+        <v>8522.3264099999997</v>
       </c>
       <c r="AA3" s="1">
-        <v>2.367313</v>
+        <v>2.3673129999999998</v>
       </c>
       <c r="AB3" s="1">
-        <v>1346.310000</v>
+        <v>1346.31</v>
       </c>
       <c r="AC3" s="1">
-        <v>-169.185000</v>
+        <v>-169.185</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>8532.940299</v>
+        <v>8532.9402989999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>2.370261</v>
+        <v>2.3702610000000002</v>
       </c>
       <c r="AG3" s="1">
-        <v>1359.770000</v>
+        <v>1359.77</v>
       </c>
       <c r="AH3" s="1">
-        <v>-178.927000</v>
+        <v>-178.92699999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>8543.381581</v>
+        <v>8543.3815809999996</v>
       </c>
       <c r="AK3" s="1">
-        <v>2.373162</v>
+        <v>2.3731620000000002</v>
       </c>
       <c r="AL3" s="1">
-        <v>1380.410000</v>
+        <v>1380.41</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.256000</v>
+        <v>-209.256</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>8553.648799</v>
+        <v>8553.6487990000005</v>
       </c>
       <c r="AP3" s="1">
-        <v>2.376014</v>
+        <v>2.3760140000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1402.060000</v>
+        <v>1402.06</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.593000</v>
+        <v>-253.59299999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>8564.374258</v>
+        <v>8564.3742579999998</v>
       </c>
       <c r="AU3" s="1">
-        <v>2.378993</v>
+        <v>2.3789929999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1426.520000</v>
+        <v>1426.52</v>
       </c>
       <c r="AW3" s="1">
-        <v>-314.187000</v>
+        <v>-314.18700000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>8575.155332</v>
+        <v>8575.1553320000003</v>
       </c>
       <c r="AZ3" s="1">
-        <v>2.381988</v>
+        <v>2.3819880000000002</v>
       </c>
       <c r="BA3" s="1">
-        <v>1445.750000</v>
+        <v>1445.75</v>
       </c>
       <c r="BB3" s="1">
-        <v>-366.828000</v>
+        <v>-366.82799999999997</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>8585.847061</v>
+        <v>8585.8470610000004</v>
       </c>
       <c r="BE3" s="1">
-        <v>2.384958</v>
+        <v>2.3849580000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1530.370000</v>
+        <v>1530.37</v>
       </c>
       <c r="BG3" s="1">
-        <v>-617.762000</v>
+        <v>-617.76199999999994</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>8596.477849</v>
+        <v>8596.4778490000008</v>
       </c>
       <c r="BJ3" s="1">
-        <v>2.387911</v>
+        <v>2.3879109999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1683.570000</v>
+        <v>1683.57</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1069.200000</v>
+        <v>-1069.2</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>8607.215209</v>
       </c>
       <c r="BO3" s="1">
-        <v>2.390893</v>
+        <v>2.3908930000000002</v>
       </c>
       <c r="BP3" s="1">
-        <v>1976.500000</v>
+        <v>1976.5</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1854.420000</v>
+        <v>-1854.42</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>8618.024027</v>
+        <v>8618.0240269999995</v>
       </c>
       <c r="BT3" s="1">
-        <v>2.393896</v>
+        <v>2.3938959999999998</v>
       </c>
       <c r="BU3" s="1">
-        <v>2361.950000</v>
+        <v>2361.9499999999998</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2763.560000</v>
+        <v>-2763.56</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>8628.706397</v>
+        <v>8628.7063969999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>2.396863</v>
+        <v>2.3968630000000002</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2850.810000</v>
+        <v>2850.81</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3758.800000</v>
+        <v>-3758.8</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>8639.711102</v>
+        <v>8639.7111019999993</v>
       </c>
       <c r="CD3" s="1">
-        <v>2.399920</v>
+        <v>2.3999199999999998</v>
       </c>
       <c r="CE3" s="1">
-        <v>4301.720000</v>
+        <v>4301.72</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6161.100000</v>
+        <v>-6161.1</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>8470.194435</v>
+        <v>8470.1944349999994</v>
       </c>
       <c r="B4" s="1">
-        <v>2.352832</v>
+        <v>2.3528319999999998</v>
       </c>
       <c r="C4" s="1">
-        <v>1242.340000</v>
+        <v>1242.3399999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-304.682000</v>
+        <v>-304.68200000000002</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>8480.522593</v>
+        <v>8480.5225929999997</v>
       </c>
       <c r="G4" s="1">
-        <v>2.355701</v>
+        <v>2.3557009999999998</v>
       </c>
       <c r="H4" s="1">
-        <v>1268.020000</v>
+        <v>1268.02</v>
       </c>
       <c r="I4" s="1">
-        <v>-263.061000</v>
+        <v>-263.06099999999998</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>8490.902371</v>
+        <v>8490.9023710000001</v>
       </c>
       <c r="L4" s="1">
         <v>2.358584</v>
       </c>
       <c r="M4" s="1">
-        <v>1304.270000</v>
+        <v>1304.27</v>
       </c>
       <c r="N4" s="1">
-        <v>-202.416000</v>
+        <v>-202.416</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>8501.669525</v>
+        <v>8501.6695249999993</v>
       </c>
       <c r="Q4" s="1">
-        <v>2.361575</v>
+        <v>2.3615750000000002</v>
       </c>
       <c r="R4" s="1">
-        <v>1315.650000</v>
+        <v>1315.65</v>
       </c>
       <c r="S4" s="1">
-        <v>-184.322000</v>
+        <v>-184.322</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>8512.211531</v>
+        <v>8512.2115310000008</v>
       </c>
       <c r="V4" s="1">
         <v>2.364503</v>
       </c>
       <c r="W4" s="1">
-        <v>1328.900000</v>
+        <v>1328.9</v>
       </c>
       <c r="X4" s="1">
-        <v>-171.121000</v>
+        <v>-171.12100000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>8522.731641</v>
+        <v>8522.7316410000003</v>
       </c>
       <c r="AA4" s="1">
-        <v>2.367425</v>
+        <v>2.3674249999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1346.600000</v>
+        <v>1346.6</v>
       </c>
       <c r="AC4" s="1">
-        <v>-168.887000</v>
+        <v>-168.887</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>8533.282539</v>
+        <v>8533.2825389999998</v>
       </c>
       <c r="AF4" s="1">
-        <v>2.370356</v>
+        <v>2.3703560000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1359.800000</v>
+        <v>1359.8</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.877000</v>
+        <v>-178.87700000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>8543.730793</v>
+        <v>8543.7307930000006</v>
       </c>
       <c r="AK4" s="1">
         <v>2.373259</v>
       </c>
       <c r="AL4" s="1">
-        <v>1380.460000</v>
+        <v>1380.46</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.291000</v>
+        <v>-209.291</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>8554.008896</v>
+        <v>8554.0088959999994</v>
       </c>
       <c r="AP4" s="1">
-        <v>2.376114</v>
+        <v>2.3761139999999998</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1402.040000</v>
+        <v>1402.04</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.575000</v>
+        <v>-253.57499999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>8564.788417</v>
+        <v>8564.7884169999998</v>
       </c>
       <c r="AU4" s="1">
         <v>2.379108</v>
       </c>
       <c r="AV4" s="1">
-        <v>1426.520000</v>
+        <v>1426.52</v>
       </c>
       <c r="AW4" s="1">
-        <v>-314.179000</v>
+        <v>-314.17899999999997</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>8575.571443</v>
+        <v>8575.5714430000007</v>
       </c>
       <c r="AZ4" s="1">
-        <v>2.382103</v>
+        <v>2.3821029999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1445.750000</v>
+        <v>1445.75</v>
       </c>
       <c r="BB4" s="1">
-        <v>-366.777000</v>
+        <v>-366.77699999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>8586.149658</v>
+        <v>8586.1496580000003</v>
       </c>
       <c r="BE4" s="1">
-        <v>2.385042</v>
+        <v>2.3850419999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1530.360000</v>
+        <v>1530.36</v>
       </c>
       <c r="BG4" s="1">
-        <v>-617.786000</v>
+        <v>-617.78599999999994</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>8596.847335</v>
+        <v>8596.8473350000004</v>
       </c>
       <c r="BJ4" s="1">
-        <v>2.388013</v>
+        <v>2.3880129999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1683.450000</v>
+        <v>1683.45</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1069.150000</v>
+        <v>-1069.1500000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>8607.643784</v>
+        <v>8607.6437839999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>2.391012</v>
+        <v>2.3910119999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1976.610000</v>
+        <v>1976.61</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1854.510000</v>
+        <v>-1854.51</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>8618.459018</v>
+        <v>8618.4590179999996</v>
       </c>
       <c r="BT4" s="1">
-        <v>2.394016</v>
+        <v>2.3940160000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>2362.500000</v>
+        <v>2362.5</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2763.130000</v>
+        <v>-2763.13</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>8629.137917</v>
       </c>
       <c r="BY4" s="1">
-        <v>2.396983</v>
+        <v>2.3969830000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2851.410000</v>
+        <v>2851.41</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3758.990000</v>
+        <v>-3758.99</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>8640.246285</v>
+        <v>8640.2462849999993</v>
       </c>
       <c r="CD4" s="1">
-        <v>2.400068</v>
+        <v>2.4000680000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>4286.750000</v>
+        <v>4286.75</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6157.680000</v>
+        <v>-6157.68</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>8470.536639</v>
+        <v>8470.5366389999999</v>
       </c>
       <c r="B5" s="1">
-        <v>2.352927</v>
+        <v>2.3529270000000002</v>
       </c>
       <c r="C5" s="1">
-        <v>1242.330000</v>
+        <v>1242.33</v>
       </c>
       <c r="D5" s="1">
-        <v>-304.487000</v>
+        <v>-304.48700000000002</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>8481.171360</v>
+        <v>8481.1713600000003</v>
       </c>
       <c r="G5" s="1">
-        <v>2.355881</v>
+        <v>2.3558810000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1268.510000</v>
+        <v>1268.51</v>
       </c>
       <c r="I5" s="1">
-        <v>-263.498000</v>
+        <v>-263.49799999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>8491.553650</v>
+        <v>8491.5536499999998</v>
       </c>
       <c r="L5" s="1">
         <v>2.358765</v>
       </c>
       <c r="M5" s="1">
-        <v>1303.960000</v>
+        <v>1303.96</v>
       </c>
       <c r="N5" s="1">
-        <v>-202.135000</v>
+        <v>-202.13499999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>8502.061364</v>
+        <v>8502.0613639999992</v>
       </c>
       <c r="Q5" s="1">
-        <v>2.361684</v>
+        <v>2.3616839999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1315.670000</v>
+        <v>1315.67</v>
       </c>
       <c r="S5" s="1">
-        <v>-184.387000</v>
+        <v>-184.387</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>8512.596390</v>
+        <v>8512.5963900000006</v>
       </c>
       <c r="V5" s="1">
-        <v>2.364610</v>
+        <v>2.3646099999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>1328.970000</v>
+        <v>1328.97</v>
       </c>
       <c r="X5" s="1">
-        <v>-171.229000</v>
+        <v>-171.22900000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>8523.077850</v>
+        <v>8523.0778499999997</v>
       </c>
       <c r="AA5" s="1">
-        <v>2.367522</v>
+        <v>2.3675220000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1346.380000</v>
+        <v>1346.38</v>
       </c>
       <c r="AC5" s="1">
-        <v>-169.079000</v>
+        <v>-169.07900000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>8533.628283</v>
       </c>
       <c r="AF5" s="1">
-        <v>2.370452</v>
+        <v>2.3704519999999998</v>
       </c>
       <c r="AG5" s="1">
-        <v>1359.750000</v>
+        <v>1359.75</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.891000</v>
+        <v>-178.89099999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>8544.079948</v>
+        <v>8544.0799480000005</v>
       </c>
       <c r="AK5" s="1">
-        <v>2.373356</v>
+        <v>2.3733559999999998</v>
       </c>
       <c r="AL5" s="1">
-        <v>1380.420000</v>
+        <v>1380.42</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.255000</v>
+        <v>-209.255</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>8554.423519</v>
+        <v>8554.4235189999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>2.376229</v>
+        <v>2.3762289999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1402.040000</v>
+        <v>1402.04</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.577000</v>
+        <v>-253.577</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>8565.100898</v>
+        <v>8565.1008980000006</v>
       </c>
       <c r="AU5" s="1">
-        <v>2.379195</v>
+        <v>2.3791950000000002</v>
       </c>
       <c r="AV5" s="1">
-        <v>1426.510000</v>
+        <v>1426.51</v>
       </c>
       <c r="AW5" s="1">
-        <v>-314.217000</v>
+        <v>-314.21699999999998</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>8575.873547</v>
+        <v>8575.8735469999992</v>
       </c>
       <c r="AZ5" s="1">
-        <v>2.382187</v>
+        <v>2.3821870000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1445.780000</v>
+        <v>1445.78</v>
       </c>
       <c r="BB5" s="1">
-        <v>-366.806000</v>
+        <v>-366.80599999999998</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>8586.512692</v>
+        <v>8586.5126920000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>2.385142</v>
+        <v>2.3851420000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1530.420000</v>
+        <v>1530.42</v>
       </c>
       <c r="BG5" s="1">
-        <v>-617.822000</v>
+        <v>-617.822</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>8597.213879</v>
+        <v>8597.2138790000008</v>
       </c>
       <c r="BJ5" s="1">
         <v>2.388115</v>
       </c>
       <c r="BK5" s="1">
-        <v>1683.450000</v>
+        <v>1683.45</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1069.170000</v>
+        <v>-1069.17</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>8608.042572</v>
+        <v>8608.0425720000003</v>
       </c>
       <c r="BO5" s="1">
-        <v>2.391123</v>
+        <v>2.3911229999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1976.630000</v>
+        <v>1976.63</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1854.280000</v>
+        <v>-1854.28</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>8618.868250</v>
+        <v>8618.8682499999995</v>
       </c>
       <c r="BT5" s="1">
-        <v>2.394130</v>
+        <v>2.3941300000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>2362.360000</v>
+        <v>2362.36</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2762.510000</v>
+        <v>-2762.51</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>8629.559981</v>
+        <v>8629.5599810000003</v>
       </c>
       <c r="BY5" s="1">
-        <v>2.397100</v>
+        <v>2.3971</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2851.300000</v>
+        <v>2851.3</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3758.390000</v>
+        <v>-3758.39</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>8640.761134</v>
+        <v>8640.7611340000003</v>
       </c>
       <c r="CD5" s="1">
-        <v>2.400211</v>
+        <v>2.4002110000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>4284.420000</v>
+        <v>4284.42</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6171.710000</v>
+        <v>-6171.71</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>8471.187884</v>
+        <v>8471.1878840000008</v>
       </c>
       <c r="B6" s="1">
-        <v>2.353108</v>
+        <v>2.3531080000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>1242.060000</v>
+        <v>1242.06</v>
       </c>
       <c r="D6" s="1">
-        <v>-304.282000</v>
+        <v>-304.28199999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>8481.554271</v>
+        <v>8481.5542710000009</v>
       </c>
       <c r="G6" s="1">
-        <v>2.355987</v>
+        <v>2.3559869999999998</v>
       </c>
       <c r="H6" s="1">
-        <v>1268.140000</v>
+        <v>1268.1400000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-263.564000</v>
+        <v>-263.56400000000002</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>8491.938017</v>
+        <v>8491.9380170000004</v>
       </c>
       <c r="L6" s="1">
-        <v>2.358872</v>
+        <v>2.3588719999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1303.580000</v>
+        <v>1303.58</v>
       </c>
       <c r="N6" s="1">
-        <v>-202.629000</v>
+        <v>-202.62899999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>8502.410552</v>
+        <v>8502.4105519999994</v>
       </c>
       <c r="Q6" s="1">
-        <v>2.361781</v>
+        <v>2.3617810000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1315.630000</v>
+        <v>1315.63</v>
       </c>
       <c r="S6" s="1">
-        <v>-184.447000</v>
+        <v>-184.447</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>8512.940117</v>
+        <v>8512.9401170000001</v>
       </c>
       <c r="V6" s="1">
         <v>2.364706</v>
       </c>
       <c r="W6" s="1">
-        <v>1328.930000</v>
+        <v>1328.93</v>
       </c>
       <c r="X6" s="1">
-        <v>-171.177000</v>
+        <v>-171.17699999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>8523.427033</v>
+        <v>8523.4270329999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>2.367619</v>
+        <v>2.3676189999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>1346.490000</v>
+        <v>1346.49</v>
       </c>
       <c r="AC6" s="1">
-        <v>-169.368000</v>
+        <v>-169.36799999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>8534.054810</v>
+        <v>8534.0548099999996</v>
       </c>
       <c r="AF6" s="1">
         <v>2.370571</v>
       </c>
       <c r="AG6" s="1">
-        <v>1359.730000</v>
+        <v>1359.73</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.987000</v>
+        <v>-178.98699999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>8544.496125</v>
+        <v>8544.4961249999997</v>
       </c>
       <c r="AK6" s="1">
-        <v>2.373471</v>
+        <v>2.3734709999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1380.410000</v>
+        <v>1380.41</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.268000</v>
+        <v>-209.268</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>8554.728559</v>
+        <v>8554.7285589999992</v>
       </c>
       <c r="AP6" s="1">
-        <v>2.376313</v>
+        <v>2.3763130000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1402.070000</v>
+        <v>1402.07</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.589000</v>
+        <v>-253.589</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>8565.469920</v>
+        <v>8565.4699199999995</v>
       </c>
       <c r="AU6" s="1">
-        <v>2.379297</v>
+        <v>2.3792970000000002</v>
       </c>
       <c r="AV6" s="1">
-        <v>1426.510000</v>
+        <v>1426.51</v>
       </c>
       <c r="AW6" s="1">
-        <v>-314.231000</v>
+        <v>-314.23099999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>8576.228146</v>
+        <v>8576.2281459999995</v>
       </c>
       <c r="AZ6" s="1">
-        <v>2.382286</v>
+        <v>2.3822860000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1445.770000</v>
+        <v>1445.77</v>
       </c>
       <c r="BB6" s="1">
-        <v>-366.820000</v>
+        <v>-366.82</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>8586.877284</v>
+        <v>8586.8772840000001</v>
       </c>
       <c r="BE6" s="1">
-        <v>2.385244</v>
+        <v>2.3852440000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1530.420000</v>
+        <v>1530.42</v>
       </c>
       <c r="BG6" s="1">
-        <v>-617.774000</v>
+        <v>-617.774</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>8597.596293</v>
+        <v>8597.5962930000005</v>
       </c>
       <c r="BJ6" s="1">
-        <v>2.388221</v>
+        <v>2.3882210000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1683.410000</v>
+        <v>1683.41</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1069.200000</v>
+        <v>-1069.2</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>8608.465623</v>
+        <v>8608.4656230000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>2.391240</v>
+        <v>2.3912399999999998</v>
       </c>
       <c r="BP6" s="1">
-        <v>1976.490000</v>
+        <v>1976.49</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1854.290000</v>
+        <v>-1854.29</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>8619.288362</v>
+        <v>8619.2883619999993</v>
       </c>
       <c r="BT6" s="1">
         <v>2.394247</v>
       </c>
       <c r="BU6" s="1">
-        <v>2362.660000</v>
+        <v>2362.66</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2762.010000</v>
+        <v>-2762.01</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>8629.982365</v>
+        <v>8629.9823649999998</v>
       </c>
       <c r="BY6" s="1">
-        <v>2.397217</v>
+        <v>2.3972169999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2850.700000</v>
+        <v>2850.7</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3758.610000</v>
+        <v>-3758.61</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>8641.280444</v>
       </c>
       <c r="CD6" s="1">
-        <v>2.400356</v>
+        <v>2.4003559999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>4299.330000</v>
+        <v>4299.33</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6172.060000</v>
+        <v>-6172.06</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>8471.562365</v>
+        <v>8471.5623649999998</v>
       </c>
       <c r="B7" s="1">
-        <v>2.353212</v>
+        <v>2.3532120000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1242.390000</v>
+        <v>1242.3900000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-304.445000</v>
+        <v>-304.44499999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>8481.898991</v>
       </c>
       <c r="G7" s="1">
-        <v>2.356083</v>
+        <v>2.3560829999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1268.620000</v>
+        <v>1268.6199999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-263.275000</v>
+        <v>-263.27499999999998</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>8492.283729</v>
+        <v>8492.2837290000007</v>
       </c>
       <c r="L7" s="1">
         <v>2.358968</v>
       </c>
       <c r="M7" s="1">
-        <v>1303.610000</v>
+        <v>1303.6099999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-202.363000</v>
+        <v>-202.363</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>8502.758740</v>
+        <v>8502.7587399999993</v>
       </c>
       <c r="Q7" s="1">
-        <v>2.361877</v>
+        <v>2.3618769999999998</v>
       </c>
       <c r="R7" s="1">
-        <v>1315.630000</v>
+        <v>1315.63</v>
       </c>
       <c r="S7" s="1">
-        <v>-184.355000</v>
+        <v>-184.35499999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>8513.352821</v>
+        <v>8513.3528210000004</v>
       </c>
       <c r="V7" s="1">
-        <v>2.364820</v>
+        <v>2.3648199999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1328.990000</v>
+        <v>1328.99</v>
       </c>
       <c r="X7" s="1">
-        <v>-171.192000</v>
+        <v>-171.19200000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>8523.837224</v>
+        <v>8523.8372240000008</v>
       </c>
       <c r="AA7" s="1">
-        <v>2.367733</v>
+        <v>2.3677329999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>1346.410000</v>
+        <v>1346.41</v>
       </c>
       <c r="AC7" s="1">
-        <v>-169.298000</v>
+        <v>-169.298</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>8534.321691</v>
+        <v>8534.3216909999992</v>
       </c>
       <c r="AF7" s="1">
-        <v>2.370645</v>
+        <v>2.3706450000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>1359.720000</v>
+        <v>1359.72</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.907000</v>
+        <v>-178.90700000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>8544.778316</v>
+        <v>8544.7783159999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>2.373550</v>
+        <v>2.3735499999999998</v>
       </c>
       <c r="AL7" s="1">
-        <v>1380.450000</v>
+        <v>1380.45</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.282000</v>
+        <v>-209.28200000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>8555.076750</v>
+        <v>8555.0767500000002</v>
       </c>
       <c r="AP7" s="1">
-        <v>2.376410</v>
+        <v>2.3764099999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1402.080000</v>
+        <v>1402.08</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.616000</v>
+        <v>-253.61600000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>8565.834511</v>
+        <v>8565.8345109999991</v>
       </c>
       <c r="AU7" s="1">
-        <v>2.379398</v>
+        <v>2.3793980000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1426.540000</v>
+        <v>1426.54</v>
       </c>
       <c r="AW7" s="1">
-        <v>-314.247000</v>
+        <v>-314.24700000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>8576.581297</v>
+        <v>8576.5812970000006</v>
       </c>
       <c r="AZ7" s="1">
-        <v>2.382384</v>
+        <v>2.3823840000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1445.750000</v>
+        <v>1445.75</v>
       </c>
       <c r="BB7" s="1">
-        <v>-366.795000</v>
+        <v>-366.79500000000002</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>8587.595955</v>
+        <v>8587.5959550000007</v>
       </c>
       <c r="BE7" s="1">
         <v>2.385443</v>
       </c>
       <c r="BF7" s="1">
-        <v>1530.390000</v>
+        <v>1530.39</v>
       </c>
       <c r="BG7" s="1">
-        <v>-617.792000</v>
+        <v>-617.79200000000003</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>8598.042728</v>
+        <v>8598.0427280000004</v>
       </c>
       <c r="BJ7" s="1">
-        <v>2.388345</v>
+        <v>2.3883450000000002</v>
       </c>
       <c r="BK7" s="1">
-        <v>1683.470000</v>
+        <v>1683.47</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1069.150000</v>
+        <v>-1069.1500000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>8608.863446</v>
+        <v>8608.8634459999994</v>
       </c>
       <c r="BO7" s="1">
-        <v>2.391351</v>
+        <v>2.3913509999999998</v>
       </c>
       <c r="BP7" s="1">
-        <v>1976.460000</v>
+        <v>1976.46</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1854.340000</v>
+        <v>-1854.34</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>8619.704968</v>
       </c>
       <c r="BT7" s="1">
-        <v>2.394362</v>
+        <v>2.3943620000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>2363.160000</v>
+        <v>2363.16</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2761.540000</v>
+        <v>-2761.54</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>8630.408138</v>
+        <v>8630.4081380000007</v>
       </c>
       <c r="BY7" s="1">
-        <v>2.397336</v>
+        <v>2.3973360000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2850.240000</v>
+        <v>2850.24</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3758.820000</v>
+        <v>-3758.82</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>8642.101856</v>
+        <v>8642.1018559999993</v>
       </c>
       <c r="CD7" s="1">
-        <v>2.400584</v>
+        <v>2.4005839999999998</v>
       </c>
       <c r="CE7" s="1">
-        <v>4298.610000</v>
+        <v>4298.6099999999997</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6155.740000</v>
+        <v>-6155.74</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>8471.904604</v>
+        <v>8471.9046039999994</v>
       </c>
       <c r="B8" s="1">
         <v>2.353307</v>
       </c>
       <c r="C8" s="1">
-        <v>1242.320000</v>
+        <v>1242.32</v>
       </c>
       <c r="D8" s="1">
-        <v>-304.066000</v>
+        <v>-304.06599999999997</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>8482.247183</v>
+        <v>8482.2471829999995</v>
       </c>
       <c r="G8" s="1">
-        <v>2.356180</v>
+        <v>2.3561800000000002</v>
       </c>
       <c r="H8" s="1">
-        <v>1268.080000</v>
+        <v>1268.08</v>
       </c>
       <c r="I8" s="1">
-        <v>-263.748000</v>
+        <v>-263.74799999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>8492.628972</v>
+        <v>8492.6289720000004</v>
       </c>
       <c r="L8" s="1">
         <v>2.359064</v>
       </c>
       <c r="M8" s="1">
-        <v>1303.370000</v>
+        <v>1303.3699999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-202.201000</v>
+        <v>-202.20099999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>8503.179843</v>
+        <v>8503.1798429999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>2.361994</v>
+        <v>2.3619940000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1315.650000</v>
+        <v>1315.65</v>
       </c>
       <c r="S8" s="1">
-        <v>-184.325000</v>
+        <v>-184.32499999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>8513.655349</v>
+        <v>8513.6553490000006</v>
       </c>
       <c r="V8" s="1">
-        <v>2.364904</v>
+        <v>2.3649040000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1329.060000</v>
+        <v>1329.06</v>
       </c>
       <c r="X8" s="1">
-        <v>-171.151000</v>
+        <v>-171.15100000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>8524.125895</v>
+        <v>8524.1258949999992</v>
       </c>
       <c r="AA8" s="1">
-        <v>2.367813</v>
+        <v>2.3678129999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1346.350000</v>
+        <v>1346.35</v>
       </c>
       <c r="AC8" s="1">
-        <v>-168.900000</v>
+        <v>-168.9</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>8534.662937</v>
+        <v>8534.6629369999991</v>
       </c>
       <c r="AF8" s="1">
-        <v>2.370740</v>
+        <v>2.3707400000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1359.720000</v>
+        <v>1359.72</v>
       </c>
       <c r="AH8" s="1">
-        <v>-178.891000</v>
+        <v>-178.89099999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>8545.127499</v>
+        <v>8545.1274990000002</v>
       </c>
       <c r="AK8" s="1">
-        <v>2.373647</v>
+        <v>2.3736470000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1380.460000</v>
+        <v>1380.46</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.259000</v>
+        <v>-209.25899999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>8555.450237</v>
+        <v>8555.4502369999991</v>
       </c>
       <c r="AP8" s="1">
-        <v>2.376514</v>
+        <v>2.3765139999999998</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1402.030000</v>
+        <v>1402.03</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.557000</v>
+        <v>-253.55699999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>8566.561119</v>
       </c>
       <c r="AU8" s="1">
-        <v>2.379600</v>
+        <v>2.3795999999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1426.530000</v>
+        <v>1426.53</v>
       </c>
       <c r="AW8" s="1">
-        <v>-314.220000</v>
+        <v>-314.22000000000003</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>8577.317857</v>
       </c>
       <c r="AZ8" s="1">
-        <v>2.382588</v>
+        <v>2.3825880000000002</v>
       </c>
       <c r="BA8" s="1">
-        <v>1445.780000</v>
+        <v>1445.78</v>
       </c>
       <c r="BB8" s="1">
-        <v>-366.772000</v>
+        <v>-366.77199999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>8587.985811</v>
+        <v>8587.9858110000005</v>
       </c>
       <c r="BE8" s="1">
-        <v>2.385552</v>
+        <v>2.3855520000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1530.380000</v>
+        <v>1530.38</v>
       </c>
       <c r="BG8" s="1">
-        <v>-617.799000</v>
+        <v>-617.79899999999998</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>8598.373557</v>
+        <v>8598.3735570000008</v>
       </c>
       <c r="BJ8" s="1">
-        <v>2.388437</v>
+        <v>2.3884370000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1683.360000</v>
+        <v>1683.36</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1069.200000</v>
+        <v>-1069.2</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>8609.283526</v>
+        <v>8609.2835259999993</v>
       </c>
       <c r="BO8" s="1">
-        <v>2.391468</v>
+        <v>2.3914680000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1976.280000</v>
+        <v>1976.28</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1854.340000</v>
+        <v>-1854.34</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>8620.419240</v>
+        <v>8620.4192399999993</v>
       </c>
       <c r="BT8" s="1">
-        <v>2.394561</v>
+        <v>2.3945609999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>2363.560000</v>
+        <v>2363.56</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2761.400000</v>
+        <v>-2761.4</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>8631.129819</v>
+        <v>8631.1298189999998</v>
       </c>
       <c r="BY8" s="1">
-        <v>2.397536</v>
+        <v>2.3975360000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2851.600000</v>
+        <v>2851.6</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3758.350000</v>
+        <v>-3758.35</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>8642.316619</v>
+        <v>8642.3166189999993</v>
       </c>
       <c r="CD8" s="1">
-        <v>2.400644</v>
+        <v>2.4006439999999998</v>
       </c>
       <c r="CE8" s="1">
-        <v>4280.710000</v>
+        <v>4280.71</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6156.590000</v>
+        <v>-6156.59</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>8472.248363</v>
+        <v>8472.2483630000006</v>
       </c>
       <c r="B9" s="1">
         <v>2.353402</v>
       </c>
       <c r="C9" s="1">
-        <v>1242.290000</v>
+        <v>1242.29</v>
       </c>
       <c r="D9" s="1">
-        <v>-303.997000</v>
+        <v>-303.99700000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>8482.657902</v>
+        <v>8482.6579020000008</v>
       </c>
       <c r="G9" s="1">
-        <v>2.356294</v>
+        <v>2.3562940000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1267.390000</v>
+        <v>1267.3900000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-263.488000</v>
+        <v>-263.488</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>8493.040624</v>
+        <v>8493.0406239999993</v>
       </c>
       <c r="L9" s="1">
         <v>2.359178</v>
       </c>
       <c r="M9" s="1">
-        <v>1303.170000</v>
+        <v>1303.17</v>
       </c>
       <c r="N9" s="1">
-        <v>-202.001000</v>
+        <v>-202.001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>8503.461074</v>
+        <v>8503.4610740000007</v>
       </c>
       <c r="Q9" s="1">
-        <v>2.362073</v>
+        <v>2.3620730000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1315.630000</v>
+        <v>1315.63</v>
       </c>
       <c r="S9" s="1">
-        <v>-184.289000</v>
+        <v>-184.28899999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>8513.998116</v>
+        <v>8513.9981160000007</v>
       </c>
       <c r="V9" s="1">
-        <v>2.364999</v>
+        <v>2.3649990000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1328.890000</v>
+        <v>1328.89</v>
       </c>
       <c r="X9" s="1">
-        <v>-171.235000</v>
+        <v>-171.23500000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>8524.472599</v>
+        <v>8524.4725990000006</v>
       </c>
       <c r="AA9" s="1">
         <v>2.367909</v>
       </c>
       <c r="AB9" s="1">
-        <v>1346.590000</v>
+        <v>1346.59</v>
       </c>
       <c r="AC9" s="1">
-        <v>-168.934000</v>
+        <v>-168.934</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>8535.006632</v>
+        <v>8535.0066320000005</v>
       </c>
       <c r="AF9" s="1">
         <v>2.370835</v>
       </c>
       <c r="AG9" s="1">
-        <v>1359.680000</v>
+        <v>1359.68</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.929000</v>
+        <v>-178.929</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>8545.476224</v>
       </c>
       <c r="AK9" s="1">
-        <v>2.373743</v>
+        <v>2.3737430000000002</v>
       </c>
       <c r="AL9" s="1">
-        <v>1380.420000</v>
+        <v>1380.42</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.267000</v>
+        <v>-209.267</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>8556.170956</v>
+        <v>8556.1709559999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>2.376714</v>
+        <v>2.3767140000000002</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1402.060000</v>
+        <v>1402.06</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.580000</v>
+        <v>-253.58</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>8566.954837</v>
+        <v>8566.9548369999993</v>
       </c>
       <c r="AU9" s="1">
-        <v>2.379710</v>
+        <v>2.3797100000000002</v>
       </c>
       <c r="AV9" s="1">
-        <v>1426.480000</v>
+        <v>1426.48</v>
       </c>
       <c r="AW9" s="1">
-        <v>-314.201000</v>
+        <v>-314.20100000000002</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>8577.692832</v>
+        <v>8577.6928320000006</v>
       </c>
       <c r="AZ9" s="1">
         <v>2.382692</v>
       </c>
       <c r="BA9" s="1">
-        <v>1445.800000</v>
+        <v>1445.8</v>
       </c>
       <c r="BB9" s="1">
-        <v>-366.780000</v>
+        <v>-366.78</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>8588.366771</v>
+        <v>8588.3667710000009</v>
       </c>
       <c r="BE9" s="1">
-        <v>2.385657</v>
+        <v>2.3856570000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1530.420000</v>
+        <v>1530.42</v>
       </c>
       <c r="BG9" s="1">
-        <v>-617.743000</v>
+        <v>-617.74300000000005</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>8599.062964</v>
+        <v>8599.0629640000006</v>
       </c>
       <c r="BJ9" s="1">
-        <v>2.388629</v>
+        <v>2.3886289999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1683.380000</v>
+        <v>1683.38</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1069.090000</v>
+        <v>-1069.0899999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>8609.974490</v>
+        <v>8609.9744900000005</v>
       </c>
       <c r="BO9" s="1">
-        <v>2.391660</v>
+        <v>2.3916599999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1976.350000</v>
+        <v>1976.35</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1854.360000</v>
+        <v>-1854.36</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>8620.532792</v>
       </c>
       <c r="BT9" s="1">
-        <v>2.394592</v>
+        <v>2.3945919999999998</v>
       </c>
       <c r="BU9" s="1">
-        <v>2364.020000</v>
+        <v>2364.02</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2761.010000</v>
+        <v>-2761.01</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>8631.268697</v>
+        <v>8631.2686969999995</v>
       </c>
       <c r="BY9" s="1">
-        <v>2.397575</v>
+        <v>2.3975749999999998</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2851.340000</v>
+        <v>2851.34</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3758.350000</v>
+        <v>-3758.35</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>8642.833914</v>
+        <v>8642.8339140000007</v>
       </c>
       <c r="CD9" s="1">
-        <v>2.400787</v>
+        <v>2.4007869999999998</v>
       </c>
       <c r="CE9" s="1">
-        <v>4281.240000</v>
+        <v>4281.24</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6155.760000</v>
+        <v>-6155.76</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>8472.669962</v>
+        <v>8472.6699619999999</v>
       </c>
       <c r="B10" s="1">
-        <v>2.353519</v>
+        <v>2.3535189999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1242.040000</v>
+        <v>1242.04</v>
       </c>
       <c r="D10" s="1">
-        <v>-304.193000</v>
+        <v>-304.19299999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>8482.933646</v>
+        <v>8482.9336459999995</v>
       </c>
       <c r="G10" s="1">
-        <v>2.356370</v>
+        <v>2.3563700000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1267.660000</v>
+        <v>1267.6600000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-263.199000</v>
+        <v>-263.19900000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>8493.318415</v>
+        <v>8493.3184149999997</v>
       </c>
       <c r="L10" s="1">
-        <v>2.359255</v>
+        <v>2.3592550000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1303.470000</v>
+        <v>1303.47</v>
       </c>
       <c r="N10" s="1">
-        <v>-202.058000</v>
+        <v>-202.05799999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>8503.811250</v>
+        <v>8503.8112500000007</v>
       </c>
       <c r="Q10" s="1">
-        <v>2.362170</v>
+        <v>2.3621699999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1315.690000</v>
+        <v>1315.69</v>
       </c>
       <c r="S10" s="1">
-        <v>-184.371000</v>
+        <v>-184.37100000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>8514.342308</v>
+        <v>8514.3423079999993</v>
       </c>
       <c r="V10" s="1">
-        <v>2.365095</v>
+        <v>2.3650950000000002</v>
       </c>
       <c r="W10" s="1">
-        <v>1329.040000</v>
+        <v>1329.04</v>
       </c>
       <c r="X10" s="1">
-        <v>-171.186000</v>
+        <v>-171.18600000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>8524.819798</v>
+        <v>8524.8197980000004</v>
       </c>
       <c r="AA10" s="1">
-        <v>2.368005</v>
+        <v>2.3680050000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1346.680000</v>
+        <v>1346.68</v>
       </c>
       <c r="AC10" s="1">
-        <v>-168.876000</v>
+        <v>-168.876</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>8535.695111</v>
+        <v>8535.6951110000009</v>
       </c>
       <c r="AF10" s="1">
-        <v>2.371026</v>
+        <v>2.3710260000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1359.740000</v>
+        <v>1359.74</v>
       </c>
       <c r="AH10" s="1">
-        <v>-178.909000</v>
+        <v>-178.90899999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>8546.171616</v>
+        <v>8546.1716159999996</v>
       </c>
       <c r="AK10" s="1">
-        <v>2.373937</v>
+        <v>2.3739370000000002</v>
       </c>
       <c r="AL10" s="1">
-        <v>1380.400000</v>
+        <v>1380.4</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.277000</v>
+        <v>-209.27699999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>8556.532012</v>
+        <v>8556.5320119999997</v>
       </c>
       <c r="AP10" s="1">
         <v>2.376814</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1402.040000</v>
+        <v>1402.04</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.549000</v>
+        <v>-253.54900000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>8567.317550</v>
+        <v>8567.3175499999998</v>
       </c>
       <c r="AU10" s="1">
-        <v>2.379810</v>
+        <v>2.37981</v>
       </c>
       <c r="AV10" s="1">
-        <v>1426.490000</v>
+        <v>1426.49</v>
       </c>
       <c r="AW10" s="1">
-        <v>-314.201000</v>
+        <v>-314.20100000000002</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>8578.072308</v>
+        <v>8578.0723080000007</v>
       </c>
       <c r="AZ10" s="1">
-        <v>2.382798</v>
+        <v>2.3827980000000002</v>
       </c>
       <c r="BA10" s="1">
-        <v>1445.760000</v>
+        <v>1445.76</v>
       </c>
       <c r="BB10" s="1">
-        <v>-366.812000</v>
+        <v>-366.81200000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>8589.048243</v>
+        <v>8589.0482429999993</v>
       </c>
       <c r="BE10" s="1">
-        <v>2.385847</v>
+        <v>2.3858470000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1530.380000</v>
+        <v>1530.38</v>
       </c>
       <c r="BG10" s="1">
-        <v>-617.742000</v>
+        <v>-617.74199999999996</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>8599.500951</v>
       </c>
       <c r="BJ10" s="1">
-        <v>2.388750</v>
+        <v>2.3887499999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1683.370000</v>
+        <v>1683.37</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1069.140000</v>
+        <v>-1069.1400000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>8610.117301</v>
+        <v>8610.1173010000002</v>
       </c>
       <c r="BO10" s="1">
         <v>2.391699</v>
       </c>
       <c r="BP10" s="1">
-        <v>1976.340000</v>
+        <v>1976.34</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1854.360000</v>
+        <v>-1854.36</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>8620.971256</v>
+        <v>8620.9712560000007</v>
       </c>
       <c r="BT10" s="1">
         <v>2.394714</v>
       </c>
       <c r="BU10" s="1">
-        <v>2364.630000</v>
+        <v>2364.63</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2761.160000</v>
+        <v>-2761.16</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>8631.695257</v>
+        <v>8631.6952569999994</v>
       </c>
       <c r="BY10" s="1">
-        <v>2.397693</v>
+        <v>2.3976929999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2850.990000</v>
+        <v>2850.99</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3758.000000</v>
+        <v>-3758</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>8643.383482</v>
+        <v>8643.3834819999993</v>
       </c>
       <c r="CD10" s="1">
-        <v>2.400940</v>
+        <v>2.4009399999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>4291.660000</v>
+        <v>4291.66</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6156.330000</v>
+        <v>-6156.33</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>8472.944715</v>
+        <v>8472.9447149999996</v>
       </c>
       <c r="B11" s="1">
         <v>2.353596</v>
       </c>
       <c r="C11" s="1">
-        <v>1242.640000</v>
+        <v>1242.6400000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-304.309000</v>
+        <v>-304.30900000000003</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>8483.279853</v>
       </c>
       <c r="G11" s="1">
-        <v>2.356467</v>
+        <v>2.3564669999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1267.980000</v>
+        <v>1267.98</v>
       </c>
       <c r="I11" s="1">
-        <v>-263.012000</v>
+        <v>-263.012</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>8493.663601</v>
+        <v>8493.6636010000002</v>
       </c>
       <c r="L11" s="1">
-        <v>2.359351</v>
+        <v>2.3593510000000002</v>
       </c>
       <c r="M11" s="1">
-        <v>1303.230000</v>
+        <v>1303.23</v>
       </c>
       <c r="N11" s="1">
-        <v>-201.590000</v>
+        <v>-201.59</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>8504.157953</v>
+        <v>8504.1579529999999</v>
       </c>
       <c r="Q11" s="1">
         <v>2.362266</v>
       </c>
       <c r="R11" s="1">
-        <v>1315.630000</v>
+        <v>1315.63</v>
       </c>
       <c r="S11" s="1">
-        <v>-184.387000</v>
+        <v>-184.387</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>8515.028772</v>
+        <v>8515.0287719999997</v>
       </c>
       <c r="V11" s="1">
-        <v>2.365286</v>
+        <v>2.3652860000000002</v>
       </c>
       <c r="W11" s="1">
-        <v>1329.030000</v>
+        <v>1329.03</v>
       </c>
       <c r="X11" s="1">
-        <v>-171.334000</v>
+        <v>-171.334</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>8525.515718</v>
+        <v>8525.5157180000006</v>
       </c>
       <c r="AA11" s="1">
-        <v>2.368199</v>
+        <v>2.3681990000000002</v>
       </c>
       <c r="AB11" s="1">
-        <v>1346.820000</v>
+        <v>1346.82</v>
       </c>
       <c r="AC11" s="1">
-        <v>-168.944000</v>
+        <v>-168.94399999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>8536.037351</v>
+        <v>8536.0373510000009</v>
       </c>
       <c r="AF11" s="1">
         <v>2.371121</v>
       </c>
       <c r="AG11" s="1">
-        <v>1359.800000</v>
+        <v>1359.8</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.937000</v>
+        <v>-178.93700000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>8546.520298</v>
+        <v>8546.5202979999995</v>
       </c>
       <c r="AK11" s="1">
-        <v>2.374033</v>
+        <v>2.3740329999999998</v>
       </c>
       <c r="AL11" s="1">
-        <v>1380.430000</v>
+        <v>1380.43</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.264000</v>
+        <v>-209.26400000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>8556.893632</v>
+        <v>8556.8936319999993</v>
       </c>
       <c r="AP11" s="1">
-        <v>2.376915</v>
+        <v>2.3769149999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1402.020000</v>
+        <v>1402.02</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.594000</v>
+        <v>-253.59399999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>8567.989138</v>
+        <v>8567.9891380000008</v>
       </c>
       <c r="AU11" s="1">
-        <v>2.379997</v>
+        <v>2.3799969999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1426.510000</v>
+        <v>1426.51</v>
       </c>
       <c r="AW11" s="1">
-        <v>-314.198000</v>
+        <v>-314.19799999999998</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>8578.741904</v>
+        <v>8578.7419040000004</v>
       </c>
       <c r="AZ11" s="1">
         <v>2.382984</v>
       </c>
       <c r="BA11" s="1">
-        <v>1445.760000</v>
+        <v>1445.76</v>
       </c>
       <c r="BB11" s="1">
-        <v>-366.750000</v>
+        <v>-366.75</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>8589.451488</v>
+        <v>8589.4514880000006</v>
       </c>
       <c r="BE11" s="1">
-        <v>2.385959</v>
+        <v>2.3859590000000002</v>
       </c>
       <c r="BF11" s="1">
-        <v>1530.400000</v>
+        <v>1530.4</v>
       </c>
       <c r="BG11" s="1">
-        <v>-617.745000</v>
+        <v>-617.745</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>8599.876403</v>
+        <v>8599.8764030000002</v>
       </c>
       <c r="BJ11" s="1">
         <v>2.388855</v>
       </c>
       <c r="BK11" s="1">
-        <v>1683.410000</v>
+        <v>1683.41</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1069.040000</v>
+        <v>-1069.04</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>8610.522069</v>
+        <v>8610.5220690000006</v>
       </c>
       <c r="BO11" s="1">
-        <v>2.391812</v>
+        <v>2.3918119999999998</v>
       </c>
       <c r="BP11" s="1">
-        <v>1976.390000</v>
+        <v>1976.39</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1854.370000</v>
+        <v>-1854.37</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>8621.398806</v>
+        <v>8621.3988059999992</v>
       </c>
       <c r="BT11" s="1">
-        <v>2.394833</v>
+        <v>2.3948330000000002</v>
       </c>
       <c r="BU11" s="1">
-        <v>2365.150000</v>
+        <v>2365.15</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2761.040000</v>
+        <v>-2761.04</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>8632.117363</v>
+        <v>8632.1173629999994</v>
       </c>
       <c r="BY11" s="1">
-        <v>2.397810</v>
+        <v>2.3978100000000002</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2850.420000</v>
+        <v>2850.42</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3759.350000</v>
+        <v>-3759.35</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>8643.914696</v>
+        <v>8643.9146959999998</v>
       </c>
       <c r="CD11" s="1">
         <v>2.401087</v>
       </c>
       <c r="CE11" s="1">
-        <v>4280.050000</v>
+        <v>4280.05</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6165.490000</v>
+        <v>-6165.49</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>8473.286458</v>
+        <v>8473.2864580000005</v>
       </c>
       <c r="B12" s="1">
         <v>2.353691</v>
       </c>
       <c r="C12" s="1">
-        <v>1241.970000</v>
+        <v>1241.97</v>
       </c>
       <c r="D12" s="1">
-        <v>-304.345000</v>
+        <v>-304.34500000000003</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>8483.627052</v>
+        <v>8483.6270519999998</v>
       </c>
       <c r="G12" s="1">
         <v>2.356563</v>
       </c>
       <c r="H12" s="1">
-        <v>1267.240000</v>
+        <v>1267.24</v>
       </c>
       <c r="I12" s="1">
-        <v>-264.295000</v>
+        <v>-264.29500000000002</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>8494.011295</v>
+        <v>8494.0112950000002</v>
       </c>
       <c r="L12" s="1">
         <v>2.359448</v>
       </c>
       <c r="M12" s="1">
-        <v>1303.450000</v>
+        <v>1303.45</v>
       </c>
       <c r="N12" s="1">
-        <v>-201.998000</v>
+        <v>-201.99799999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>8504.855824</v>
+        <v>8504.8558240000002</v>
       </c>
       <c r="Q12" s="1">
-        <v>2.362460</v>
+        <v>2.36246</v>
       </c>
       <c r="R12" s="1">
-        <v>1315.540000</v>
+        <v>1315.54</v>
       </c>
       <c r="S12" s="1">
-        <v>-184.390000</v>
+        <v>-184.39</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>8515.370542</v>
+        <v>8515.3705420000006</v>
       </c>
       <c r="V12" s="1">
-        <v>2.365381</v>
+        <v>2.3653810000000002</v>
       </c>
       <c r="W12" s="1">
-        <v>1329.030000</v>
+        <v>1329.03</v>
       </c>
       <c r="X12" s="1">
-        <v>-171.162000</v>
+        <v>-171.16200000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>8525.866852</v>
+        <v>8525.8668519999992</v>
       </c>
       <c r="AA12" s="1">
         <v>2.368296</v>
       </c>
       <c r="AB12" s="1">
-        <v>1346.690000</v>
+        <v>1346.69</v>
       </c>
       <c r="AC12" s="1">
-        <v>-168.828000</v>
+        <v>-168.828</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>8536.382039</v>
+        <v>8536.3820390000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>2.371217</v>
+        <v>2.3712170000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>1359.740000</v>
+        <v>1359.74</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.791000</v>
+        <v>-178.791</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>8546.870937</v>
+        <v>8546.8709369999997</v>
       </c>
       <c r="AK12" s="1">
-        <v>2.374131</v>
+        <v>2.3741310000000002</v>
       </c>
       <c r="AL12" s="1">
-        <v>1380.430000</v>
+        <v>1380.43</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.265000</v>
+        <v>-209.26499999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>8557.560716</v>
       </c>
       <c r="AP12" s="1">
-        <v>2.377100</v>
+        <v>2.3771</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1402.010000</v>
+        <v>1402.01</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.618000</v>
+        <v>-253.61799999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>8568.444460</v>
+        <v>8568.4444600000006</v>
       </c>
       <c r="AU12" s="1">
-        <v>2.380123</v>
+        <v>2.3801230000000002</v>
       </c>
       <c r="AV12" s="1">
-        <v>1426.510000</v>
+        <v>1426.51</v>
       </c>
       <c r="AW12" s="1">
-        <v>-314.226000</v>
+        <v>-314.226</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>8579.155535</v>
+        <v>8579.1555349999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>2.383099</v>
+        <v>2.3830990000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1445.740000</v>
+        <v>1445.74</v>
       </c>
       <c r="BB12" s="1">
-        <v>-366.792000</v>
+        <v>-366.79199999999997</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>8589.839856</v>
+        <v>8589.8398560000005</v>
       </c>
       <c r="BE12" s="1">
-        <v>2.386067</v>
+        <v>2.3860670000000002</v>
       </c>
       <c r="BF12" s="1">
-        <v>1530.390000</v>
+        <v>1530.39</v>
       </c>
       <c r="BG12" s="1">
-        <v>-617.703000</v>
+        <v>-617.70299999999997</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>8600.252402</v>
+        <v>8600.2524020000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>2.388959</v>
+        <v>2.3889589999999998</v>
       </c>
       <c r="BK12" s="1">
-        <v>1683.380000</v>
+        <v>1683.38</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1069.080000</v>
+        <v>-1069.08</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>8610.922308</v>
+        <v>8610.9223079999992</v>
       </c>
       <c r="BO12" s="1">
-        <v>2.391923</v>
+        <v>2.3919229999999998</v>
       </c>
       <c r="BP12" s="1">
-        <v>1976.490000</v>
+        <v>1976.49</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1854.140000</v>
+        <v>-1854.14</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>8621.809989</v>
+        <v>8621.8099889999994</v>
       </c>
       <c r="BT12" s="1">
-        <v>2.394947</v>
+        <v>2.3949470000000002</v>
       </c>
       <c r="BU12" s="1">
-        <v>2365.420000</v>
+        <v>2365.42</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2761.260000</v>
+        <v>-2761.26</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>8632.544904</v>
+        <v>8632.5449040000003</v>
       </c>
       <c r="BY12" s="1">
         <v>2.397929</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2851.140000</v>
+        <v>2851.14</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3758.360000</v>
+        <v>-3758.36</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>8644.433048</v>
+        <v>8644.4330480000008</v>
       </c>
       <c r="CD12" s="1">
-        <v>2.401231</v>
+        <v>2.4012310000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>4290.520000</v>
+        <v>4290.5200000000004</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6177.000000</v>
+        <v>-6177</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>8473.628201</v>
+        <v>8473.6282009999995</v>
       </c>
       <c r="B13" s="1">
-        <v>2.353786</v>
+        <v>2.3537859999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1242.040000</v>
+        <v>1242.04</v>
       </c>
       <c r="D13" s="1">
-        <v>-304.521000</v>
+        <v>-304.52100000000002</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>8484.320956</v>
+        <v>8484.3209559999996</v>
       </c>
       <c r="G13" s="1">
-        <v>2.356756</v>
+        <v>2.3567559999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1268.240000</v>
+        <v>1268.24</v>
       </c>
       <c r="I13" s="1">
-        <v>-263.055000</v>
+        <v>-263.05500000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>8494.703710</v>
+        <v>8494.7037099999998</v>
       </c>
       <c r="L13" s="1">
-        <v>2.359640</v>
+        <v>2.3596400000000002</v>
       </c>
       <c r="M13" s="1">
-        <v>1303.550000</v>
+        <v>1303.55</v>
       </c>
       <c r="N13" s="1">
-        <v>-202.100000</v>
+        <v>-202.1</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>8505.202033</v>
+        <v>8505.2020329999996</v>
       </c>
       <c r="Q13" s="1">
-        <v>2.362556</v>
+        <v>2.3625560000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1315.580000</v>
+        <v>1315.58</v>
       </c>
       <c r="S13" s="1">
-        <v>-184.342000</v>
+        <v>-184.34200000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>8515.714275</v>
+        <v>8515.7142750000003</v>
       </c>
       <c r="V13" s="1">
-        <v>2.365476</v>
+        <v>2.3654760000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1328.930000</v>
+        <v>1328.93</v>
       </c>
       <c r="X13" s="1">
-        <v>-171.148000</v>
+        <v>-171.148</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>8526.215077</v>
+        <v>8526.2150770000007</v>
       </c>
       <c r="AA13" s="1">
-        <v>2.368393</v>
+        <v>2.3683930000000002</v>
       </c>
       <c r="AB13" s="1">
-        <v>1346.910000</v>
+        <v>1346.91</v>
       </c>
       <c r="AC13" s="1">
-        <v>-168.893000</v>
+        <v>-168.893</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>8537.022901</v>
+        <v>8537.0229010000003</v>
       </c>
       <c r="AF13" s="1">
-        <v>2.371395</v>
+        <v>2.3713950000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1359.750000</v>
+        <v>1359.75</v>
       </c>
       <c r="AH13" s="1">
-        <v>-178.930000</v>
+        <v>-178.93</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>8547.565864</v>
+        <v>8547.5658640000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>2.374324</v>
+        <v>2.3743240000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1380.410000</v>
+        <v>1380.41</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.217000</v>
+        <v>-209.21700000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>8558.000667</v>
+        <v>8558.0006670000002</v>
       </c>
       <c r="AP13" s="1">
-        <v>2.377222</v>
+        <v>2.3772220000000002</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1402.010000</v>
+        <v>1402.01</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.628000</v>
+        <v>-253.62799999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>8568.808988</v>
+        <v>8568.8089880000007</v>
       </c>
       <c r="AU13" s="1">
-        <v>2.380225</v>
+        <v>2.3802249999999998</v>
       </c>
       <c r="AV13" s="1">
-        <v>1426.510000</v>
+        <v>1426.51</v>
       </c>
       <c r="AW13" s="1">
-        <v>-314.199000</v>
+        <v>-314.19900000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>8579.532990</v>
+        <v>8579.5329899999997</v>
       </c>
       <c r="AZ13" s="1">
-        <v>2.383204</v>
+        <v>2.3832040000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1445.740000</v>
+        <v>1445.74</v>
       </c>
       <c r="BB13" s="1">
-        <v>-366.791000</v>
+        <v>-366.791</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>8590.202928</v>
+        <v>8590.2029280000006</v>
       </c>
       <c r="BE13" s="1">
-        <v>2.386167</v>
+        <v>2.3861669999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1530.350000</v>
+        <v>1530.35</v>
       </c>
       <c r="BG13" s="1">
-        <v>-617.726000</v>
+        <v>-617.726</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>8600.672482</v>
+        <v>8600.6724819999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>2.389076</v>
+        <v>2.3890760000000002</v>
       </c>
       <c r="BK13" s="1">
-        <v>1683.360000</v>
+        <v>1683.36</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1069.140000</v>
+        <v>-1069.1400000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>8611.344403</v>
+        <v>8611.3444029999991</v>
       </c>
       <c r="BO13" s="1">
-        <v>2.392040</v>
+        <v>2.3920400000000002</v>
       </c>
       <c r="BP13" s="1">
-        <v>1976.340000</v>
+        <v>1976.34</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1854.150000</v>
+        <v>-1854.15</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>8622.240549</v>
+        <v>8622.2405490000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>2.395067</v>
+        <v>2.3950670000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>2366.020000</v>
+        <v>2366.02</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2761.470000</v>
+        <v>-2761.47</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>8632.977911</v>
+        <v>8632.9779109999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>2.398049</v>
+        <v>2.3980489999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2850.790000</v>
+        <v>2850.79</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3757.650000</v>
+        <v>-3757.65</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>8644.946884</v>
+        <v>8644.9468840000009</v>
       </c>
       <c r="CD13" s="1">
-        <v>2.401374</v>
+        <v>2.4013740000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>4303.710000</v>
+        <v>4303.71</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6164.950000</v>
+        <v>-6164.95</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>8474.311689</v>
+        <v>8474.3116890000001</v>
       </c>
       <c r="B14" s="1">
-        <v>2.353975</v>
+        <v>2.3539750000000002</v>
       </c>
       <c r="C14" s="1">
-        <v>1241.950000</v>
+        <v>1241.95</v>
       </c>
       <c r="D14" s="1">
-        <v>-304.195000</v>
+        <v>-304.19499999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>8484.663692</v>
+        <v>8484.6636920000001</v>
       </c>
       <c r="G14" s="1">
-        <v>2.356851</v>
+        <v>2.3568509999999998</v>
       </c>
       <c r="H14" s="1">
-        <v>1267.000000</v>
+        <v>1267</v>
       </c>
       <c r="I14" s="1">
-        <v>-263.575000</v>
+        <v>-263.57499999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>8495.049917</v>
+        <v>8495.0499170000003</v>
       </c>
       <c r="L14" s="1">
-        <v>2.359736</v>
+        <v>2.3597359999999998</v>
       </c>
       <c r="M14" s="1">
-        <v>1303.480000</v>
+        <v>1303.48</v>
       </c>
       <c r="N14" s="1">
-        <v>-202.195000</v>
+        <v>-202.19499999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>8505.552207</v>
+        <v>8505.5522070000006</v>
       </c>
       <c r="Q14" s="1">
-        <v>2.362653</v>
+        <v>2.3626529999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1315.550000</v>
+        <v>1315.55</v>
       </c>
       <c r="S14" s="1">
-        <v>-184.295000</v>
+        <v>-184.29499999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>8516.365026</v>
+        <v>8516.3650259999995</v>
       </c>
       <c r="V14" s="1">
-        <v>2.365657</v>
+        <v>2.3656570000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1328.860000</v>
+        <v>1328.86</v>
       </c>
       <c r="X14" s="1">
-        <v>-171.128000</v>
+        <v>-171.12799999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>8526.868803</v>
+        <v>8526.8688029999994</v>
       </c>
       <c r="AA14" s="1">
-        <v>2.368575</v>
+        <v>2.3685749999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1346.710000</v>
+        <v>1346.71</v>
       </c>
       <c r="AC14" s="1">
-        <v>-168.951000</v>
+        <v>-168.95099999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>8537.412725</v>
+        <v>8537.4127250000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>2.371504</v>
+        <v>2.3715039999999998</v>
       </c>
       <c r="AG14" s="1">
-        <v>1359.790000</v>
+        <v>1359.79</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.823000</v>
+        <v>-178.82300000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>8547.914023</v>
+        <v>8547.9140229999994</v>
       </c>
       <c r="AK14" s="1">
-        <v>2.374421</v>
+        <v>2.3744209999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1380.420000</v>
+        <v>1380.42</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.246000</v>
+        <v>-209.24600000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>8558.364233</v>
+        <v>8558.3642330000002</v>
       </c>
       <c r="AP14" s="1">
-        <v>2.377323</v>
+        <v>2.3773230000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1401.980000</v>
+        <v>1401.98</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.645000</v>
+        <v>-253.64500000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>8569.176029</v>
+        <v>8569.1760290000002</v>
       </c>
       <c r="AU14" s="1">
-        <v>2.380327</v>
+        <v>2.3803269999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1426.490000</v>
+        <v>1426.49</v>
       </c>
       <c r="AW14" s="1">
-        <v>-314.199000</v>
+        <v>-314.19900000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>8579.909455</v>
+        <v>8579.9094550000009</v>
       </c>
       <c r="AZ14" s="1">
         <v>2.383308</v>
       </c>
       <c r="BA14" s="1">
-        <v>1445.770000</v>
+        <v>1445.77</v>
       </c>
       <c r="BB14" s="1">
-        <v>-366.781000</v>
+        <v>-366.78100000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>8590.622047</v>
+        <v>8590.6220470000007</v>
       </c>
       <c r="BE14" s="1">
-        <v>2.386284</v>
+        <v>2.3862839999999998</v>
       </c>
       <c r="BF14" s="1">
-        <v>1530.370000</v>
+        <v>1530.37</v>
       </c>
       <c r="BG14" s="1">
-        <v>-617.715000</v>
+        <v>-617.71500000000003</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>8601.007777</v>
+        <v>8601.0077770000007</v>
       </c>
       <c r="BJ14" s="1">
-        <v>2.389169</v>
+        <v>2.3891689999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1683.380000</v>
+        <v>1683.38</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1069.090000</v>
+        <v>-1069.0899999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>8611.739251</v>
+        <v>8611.7392510000009</v>
       </c>
       <c r="BO14" s="1">
-        <v>2.392150</v>
+        <v>2.39215</v>
       </c>
       <c r="BP14" s="1">
-        <v>1976.300000</v>
+        <v>1976.3</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1854.290000</v>
+        <v>-1854.29</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>8622.670090</v>
+        <v>8622.6700899999996</v>
       </c>
       <c r="BT14" s="1">
-        <v>2.395186</v>
+        <v>2.3951859999999998</v>
       </c>
       <c r="BU14" s="1">
-        <v>2366.200000</v>
+        <v>2366.1999999999998</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2761.970000</v>
+        <v>-2761.97</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>8633.403015</v>
+        <v>8633.4030149999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>2.398168</v>
+        <v>2.3981680000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2850.150000</v>
+        <v>2850.15</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3757.940000</v>
+        <v>-3757.94</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>8645.469189</v>
+        <v>8645.4691889999995</v>
       </c>
       <c r="CD14" s="1">
         <v>2.401519</v>
       </c>
       <c r="CE14" s="1">
-        <v>4279.500000</v>
+        <v>4279.5</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6166.080000</v>
+        <v>-6166.08</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>8474.654426</v>
+        <v>8474.6544259999991</v>
       </c>
       <c r="B15" s="1">
-        <v>2.354071</v>
+        <v>2.3540709999999998</v>
       </c>
       <c r="C15" s="1">
-        <v>1242.190000</v>
+        <v>1242.19</v>
       </c>
       <c r="D15" s="1">
-        <v>-304.614000</v>
+        <v>-304.61399999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>8485.007915</v>
+        <v>8485.0079150000001</v>
       </c>
       <c r="G15" s="1">
-        <v>2.356947</v>
+        <v>2.3569469999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1267.480000</v>
+        <v>1267.48</v>
       </c>
       <c r="I15" s="1">
-        <v>-263.199000</v>
+        <v>-263.19900000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>8495.726958</v>
+        <v>8495.7269579999993</v>
       </c>
       <c r="L15" s="1">
-        <v>2.359924</v>
+        <v>2.3599239999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1303.470000</v>
+        <v>1303.47</v>
       </c>
       <c r="N15" s="1">
-        <v>-201.975000</v>
+        <v>-201.97499999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>8506.194527</v>
+        <v>8506.1945269999997</v>
       </c>
       <c r="Q15" s="1">
         <v>2.362832</v>
       </c>
       <c r="R15" s="1">
-        <v>1315.590000</v>
+        <v>1315.59</v>
       </c>
       <c r="S15" s="1">
-        <v>-184.220000</v>
+        <v>-184.22</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>8516.743442</v>
+        <v>8516.7434420000009</v>
       </c>
       <c r="V15" s="1">
-        <v>2.365762</v>
+        <v>2.3657620000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>1328.920000</v>
+        <v>1328.92</v>
       </c>
       <c r="X15" s="1">
-        <v>-171.094000</v>
+        <v>-171.09399999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>8527.262100</v>
+        <v>8527.2620999999999</v>
       </c>
       <c r="AA15" s="1">
         <v>2.368684</v>
       </c>
       <c r="AB15" s="1">
-        <v>1346.700000</v>
+        <v>1346.7</v>
       </c>
       <c r="AC15" s="1">
-        <v>-168.786000</v>
+        <v>-168.786</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>8537.757271</v>
+        <v>8537.7572710000004</v>
       </c>
       <c r="AF15" s="1">
-        <v>2.371599</v>
+        <v>2.3715989999999998</v>
       </c>
       <c r="AG15" s="1">
-        <v>1359.660000</v>
+        <v>1359.66</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.940000</v>
+        <v>-178.94</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>8548.263239</v>
+        <v>8548.2632389999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>2.374518</v>
+        <v>2.3745180000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1380.390000</v>
+        <v>1380.39</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.237000</v>
+        <v>-209.23699999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>8558.723370</v>
+        <v>8558.7233699999997</v>
       </c>
       <c r="AP15" s="1">
-        <v>2.377423</v>
+        <v>2.3774229999999998</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1402.000000</v>
+        <v>1402</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.621000</v>
+        <v>-253.62100000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>8569.600106</v>
+        <v>8569.6001059999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>2.380444</v>
+        <v>2.3804439999999998</v>
       </c>
       <c r="AV15" s="1">
-        <v>1426.510000</v>
+        <v>1426.51</v>
       </c>
       <c r="AW15" s="1">
-        <v>-314.193000</v>
+        <v>-314.19299999999998</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>8580.327122</v>
+        <v>8580.3271220000006</v>
       </c>
       <c r="AZ15" s="1">
-        <v>2.383424</v>
+        <v>2.3834240000000002</v>
       </c>
       <c r="BA15" s="1">
-        <v>1445.780000</v>
+        <v>1445.78</v>
       </c>
       <c r="BB15" s="1">
-        <v>-366.787000</v>
+        <v>-366.78699999999998</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>8590.925599</v>
+        <v>8590.9255990000001</v>
       </c>
       <c r="BE15" s="1">
         <v>2.386368</v>
       </c>
       <c r="BF15" s="1">
-        <v>1530.400000</v>
+        <v>1530.4</v>
       </c>
       <c r="BG15" s="1">
-        <v>-617.723000</v>
+        <v>-617.72299999999996</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>8601.397633</v>
+        <v>8601.3976330000005</v>
       </c>
       <c r="BJ15" s="1">
-        <v>2.389277</v>
+        <v>2.3892769999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1683.440000</v>
+        <v>1683.44</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1069.130000</v>
+        <v>-1069.1300000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>8612.159330</v>
+        <v>8612.1593300000004</v>
       </c>
       <c r="BO15" s="1">
-        <v>2.392266</v>
+        <v>2.3922659999999998</v>
       </c>
       <c r="BP15" s="1">
-        <v>1976.390000</v>
+        <v>1976.39</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1854.190000</v>
+        <v>-1854.19</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>8623.083079</v>
       </c>
       <c r="BT15" s="1">
-        <v>2.395301</v>
+        <v>2.3953009999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>2366.390000</v>
+        <v>2366.39</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2762.400000</v>
+        <v>-2762.4</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>8633.828056</v>
+        <v>8633.8280560000003</v>
       </c>
       <c r="BY15" s="1">
-        <v>2.398286</v>
+        <v>2.3982860000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2850.390000</v>
+        <v>2850.39</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3757.550000</v>
+        <v>-3757.55</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>8646.006327</v>
+        <v>8646.0063269999991</v>
       </c>
       <c r="CD15" s="1">
-        <v>2.401668</v>
+        <v>2.4016679999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>4297.600000</v>
+        <v>4297.6000000000004</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6170.700000</v>
+        <v>-6170.7</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>8474.996168</v>
+        <v>8474.9961679999997</v>
       </c>
       <c r="B16" s="1">
-        <v>2.354166</v>
+        <v>2.3541660000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>1242.320000</v>
+        <v>1242.32</v>
       </c>
       <c r="D16" s="1">
-        <v>-304.509000</v>
+        <v>-304.50900000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>8485.655227</v>
+        <v>8485.6552269999993</v>
       </c>
       <c r="G16" s="1">
-        <v>2.357126</v>
+        <v>2.3571260000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1267.880000</v>
+        <v>1267.8800000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-263.694000</v>
+        <v>-263.69400000000002</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>8496.086060</v>
+        <v>8496.0860599999996</v>
       </c>
       <c r="L16" s="1">
-        <v>2.360024</v>
+        <v>2.3600240000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>1303.800000</v>
+        <v>1303.8</v>
       </c>
       <c r="N16" s="1">
-        <v>-201.867000</v>
+        <v>-201.86699999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>8506.597808</v>
+        <v>8506.5978080000004</v>
       </c>
       <c r="Q16" s="1">
-        <v>2.362944</v>
+        <v>2.3629440000000002</v>
       </c>
       <c r="R16" s="1">
-        <v>1315.630000</v>
+        <v>1315.63</v>
       </c>
       <c r="S16" s="1">
-        <v>-184.394000</v>
+        <v>-184.39400000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>8517.086672</v>
+        <v>8517.0866719999995</v>
       </c>
       <c r="V16" s="1">
-        <v>2.365857</v>
+        <v>2.3658570000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1328.890000</v>
+        <v>1328.89</v>
       </c>
       <c r="X16" s="1">
-        <v>-171.163000</v>
+        <v>-171.16300000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>8527.610786</v>
+        <v>8527.6107859999993</v>
       </c>
       <c r="AA16" s="1">
-        <v>2.368781</v>
+        <v>2.3687809999999998</v>
       </c>
       <c r="AB16" s="1">
-        <v>1346.840000</v>
+        <v>1346.84</v>
       </c>
       <c r="AC16" s="1">
-        <v>-168.884000</v>
+        <v>-168.88399999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>8538.101207</v>
+        <v>8538.1012069999997</v>
       </c>
       <c r="AF16" s="1">
-        <v>2.371695</v>
+        <v>2.3716949999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1359.780000</v>
+        <v>1359.78</v>
       </c>
       <c r="AH16" s="1">
-        <v>-178.872000</v>
+        <v>-178.87200000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>8548.675879</v>
+        <v>8548.6758790000004</v>
       </c>
       <c r="AK16" s="1">
-        <v>2.374632</v>
+        <v>2.3746320000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1380.410000</v>
+        <v>1380.41</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.213000</v>
+        <v>-209.21299999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>8559.143976</v>
+        <v>8559.1439759999994</v>
       </c>
       <c r="AP16" s="1">
-        <v>2.377540</v>
+        <v>2.3775400000000002</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1402.040000</v>
+        <v>1402.04</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.670000</v>
+        <v>-253.67</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>8569.903658</v>
+        <v>8569.9036579999993</v>
       </c>
       <c r="AU16" s="1">
-        <v>2.380529</v>
+        <v>2.3805290000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1426.530000</v>
+        <v>1426.53</v>
       </c>
       <c r="AW16" s="1">
-        <v>-314.174000</v>
+        <v>-314.17399999999998</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>8580.628684</v>
+        <v>8580.6286839999993</v>
       </c>
       <c r="AZ16" s="1">
         <v>2.383508</v>
       </c>
       <c r="BA16" s="1">
-        <v>1445.760000</v>
+        <v>1445.76</v>
       </c>
       <c r="BB16" s="1">
-        <v>-366.769000</v>
+        <v>-366.76900000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>8591.285991</v>
+        <v>8591.2859910000006</v>
       </c>
       <c r="BE16" s="1">
-        <v>2.386468</v>
+        <v>2.3864679999999998</v>
       </c>
       <c r="BF16" s="1">
-        <v>1530.380000</v>
+        <v>1530.38</v>
       </c>
       <c r="BG16" s="1">
-        <v>-617.708000</v>
+        <v>-617.70799999999997</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>8601.774096</v>
+        <v>8601.7740959999992</v>
       </c>
       <c r="BJ16" s="1">
-        <v>2.389382</v>
+        <v>2.3893819999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1683.430000</v>
+        <v>1683.43</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1069.010000</v>
+        <v>-1069.01</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>8612.558610</v>
+        <v>8612.55861</v>
       </c>
       <c r="BO16" s="1">
-        <v>2.392377</v>
+        <v>2.3923770000000002</v>
       </c>
       <c r="BP16" s="1">
-        <v>1976.260000</v>
+        <v>1976.26</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1853.990000</v>
+        <v>-1853.99</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>8623.514243</v>
+        <v>8623.5142429999996</v>
       </c>
       <c r="BT16" s="1">
-        <v>2.395421</v>
+        <v>2.3954209999999998</v>
       </c>
       <c r="BU16" s="1">
-        <v>2366.460000</v>
+        <v>2366.46</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2762.980000</v>
+        <v>-2762.98</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>8634.272965</v>
+        <v>8634.2729650000001</v>
       </c>
       <c r="BY16" s="1">
         <v>2.398409</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2850.820000</v>
+        <v>2850.82</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3758.420000</v>
+        <v>-3758.42</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>8646.547766</v>
+        <v>8646.5477659999997</v>
       </c>
       <c r="CD16" s="1">
-        <v>2.401819</v>
+        <v>2.4018190000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>4287.680000</v>
+        <v>4287.68</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6151.240000</v>
+        <v>-6151.24</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>8475.641463</v>
+        <v>8475.6414629999999</v>
       </c>
       <c r="B17" s="1">
-        <v>2.354345</v>
+        <v>2.3543449999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1242.090000</v>
+        <v>1242.0899999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-304.470000</v>
+        <v>-304.47000000000003</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>8486.045546</v>
+        <v>8486.0455459999994</v>
       </c>
       <c r="G17" s="1">
-        <v>2.357235</v>
+        <v>2.3572350000000002</v>
       </c>
       <c r="H17" s="1">
-        <v>1267.860000</v>
+        <v>1267.8599999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-262.608000</v>
+        <v>-262.608</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>8496.430284</v>
       </c>
       <c r="L17" s="1">
-        <v>2.360120</v>
+        <v>2.3601200000000002</v>
       </c>
       <c r="M17" s="1">
-        <v>1303.770000</v>
+        <v>1303.77</v>
       </c>
       <c r="N17" s="1">
-        <v>-202.283000</v>
+        <v>-202.28299999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>8506.944511</v>
+        <v>8506.9445109999997</v>
       </c>
       <c r="Q17" s="1">
-        <v>2.363040</v>
+        <v>2.3630399999999998</v>
       </c>
       <c r="R17" s="1">
-        <v>1315.570000</v>
+        <v>1315.57</v>
       </c>
       <c r="S17" s="1">
-        <v>-184.392000</v>
+        <v>-184.392</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>8517.431393</v>
+        <v>8517.4313930000008</v>
       </c>
       <c r="V17" s="1">
-        <v>2.365953</v>
+        <v>2.3659530000000002</v>
       </c>
       <c r="W17" s="1">
-        <v>1328.840000</v>
+        <v>1328.84</v>
       </c>
       <c r="X17" s="1">
-        <v>-171.095000</v>
+        <v>-171.095</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>8527.960466</v>
+        <v>8527.9604660000005</v>
       </c>
       <c r="AA17" s="1">
         <v>2.368878</v>
       </c>
       <c r="AB17" s="1">
-        <v>1346.800000</v>
+        <v>1346.8</v>
       </c>
       <c r="AC17" s="1">
-        <v>-168.865000</v>
+        <v>-168.86500000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>8538.518308</v>
+        <v>8538.5183080000006</v>
       </c>
       <c r="AF17" s="1">
-        <v>2.371811</v>
+        <v>2.3718110000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1359.760000</v>
+        <v>1359.76</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.934000</v>
+        <v>-178.934</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>8548.960118</v>
+        <v>8548.9601180000009</v>
       </c>
       <c r="AK17" s="1">
         <v>2.374711</v>
       </c>
       <c r="AL17" s="1">
-        <v>1380.430000</v>
+        <v>1380.43</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.228000</v>
+        <v>-209.22800000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>8559.443560</v>
+        <v>8559.4435599999997</v>
       </c>
       <c r="AP17" s="1">
-        <v>2.377623</v>
+        <v>2.3776229999999998</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1402.020000</v>
+        <v>1402.02</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.634000</v>
+        <v>-253.63399999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>8570.271033</v>
+        <v>8570.2710330000009</v>
       </c>
       <c r="AU17" s="1">
-        <v>2.380631</v>
+        <v>2.3806310000000002</v>
       </c>
       <c r="AV17" s="1">
-        <v>1426.500000</v>
+        <v>1426.5</v>
       </c>
       <c r="AW17" s="1">
-        <v>-314.152000</v>
+        <v>-314.15199999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>8581.210459</v>
+        <v>8581.2104589999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>2.383670</v>
+        <v>2.38367</v>
       </c>
       <c r="BA17" s="1">
-        <v>1445.740000</v>
+        <v>1445.74</v>
       </c>
       <c r="BB17" s="1">
-        <v>-366.768000</v>
+        <v>-366.76799999999997</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>8591.645293</v>
+        <v>8591.6452929999996</v>
       </c>
       <c r="BE17" s="1">
         <v>2.386568</v>
       </c>
       <c r="BF17" s="1">
-        <v>1530.330000</v>
+        <v>1530.33</v>
       </c>
       <c r="BG17" s="1">
-        <v>-617.731000</v>
+        <v>-617.73099999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>8602.524047</v>
+        <v>8602.5240470000008</v>
       </c>
       <c r="BJ17" s="1">
-        <v>2.389590</v>
+        <v>2.3895900000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1683.370000</v>
+        <v>1683.37</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1069.000000</v>
+        <v>-1069</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>8612.977762</v>
+        <v>8612.9777620000004</v>
       </c>
       <c r="BO17" s="1">
-        <v>2.392494</v>
+        <v>2.3924940000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1976.280000</v>
+        <v>1976.28</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1853.970000</v>
+        <v>-1853.97</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>8623.930400</v>
+        <v>8623.9303999999993</v>
       </c>
       <c r="BT17" s="1">
-        <v>2.395536</v>
+        <v>2.3955359999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>2366.860000</v>
+        <v>2366.86</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2763.250000</v>
+        <v>-2763.25</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>8634.704517</v>
+        <v>8634.7045170000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>2.398529</v>
+        <v>2.3985289999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2851.030000</v>
+        <v>2851.03</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3757.620000</v>
+        <v>-3757.62</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>8647.086614</v>
+        <v>8647.0866139999998</v>
       </c>
       <c r="CD17" s="1">
-        <v>2.401969</v>
+        <v>2.4019689999999998</v>
       </c>
       <c r="CE17" s="1">
-        <v>4287.600000</v>
+        <v>4287.6000000000004</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6176.600000</v>
+        <v>-6176.6</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>8476.020936</v>
+        <v>8476.0209360000008</v>
       </c>
       <c r="B18" s="1">
-        <v>2.354450</v>
+        <v>2.3544499999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1242.430000</v>
+        <v>1242.43</v>
       </c>
       <c r="D18" s="1">
-        <v>-304.624000</v>
+        <v>-304.62400000000002</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>8486.390265</v>
       </c>
       <c r="G18" s="1">
-        <v>2.357331</v>
+        <v>2.3573309999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>1267.860000</v>
+        <v>1267.8599999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-263.331000</v>
+        <v>-263.33100000000002</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>8496.780986</v>
+        <v>8496.7809859999998</v>
       </c>
       <c r="L18" s="1">
         <v>2.360217</v>
       </c>
       <c r="M18" s="1">
-        <v>1303.700000</v>
+        <v>1303.7</v>
       </c>
       <c r="N18" s="1">
-        <v>-201.848000</v>
+        <v>-201.84800000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>8507.295677</v>
+        <v>8507.2956770000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>2.363138</v>
+        <v>2.3631380000000002</v>
       </c>
       <c r="R18" s="1">
-        <v>1315.590000</v>
+        <v>1315.59</v>
       </c>
       <c r="S18" s="1">
-        <v>-184.324000</v>
+        <v>-184.32400000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>8517.843072</v>
+        <v>8517.8430719999997</v>
       </c>
       <c r="V18" s="1">
-        <v>2.366068</v>
+        <v>2.3660679999999998</v>
       </c>
       <c r="W18" s="1">
-        <v>1328.860000</v>
+        <v>1328.86</v>
       </c>
       <c r="X18" s="1">
-        <v>-171.214000</v>
+        <v>-171.214</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>8528.381073</v>
+        <v>8528.3810730000005</v>
       </c>
       <c r="AA18" s="1">
         <v>2.368995</v>
       </c>
       <c r="AB18" s="1">
-        <v>1346.570000</v>
+        <v>1346.57</v>
       </c>
       <c r="AC18" s="1">
-        <v>-168.789000</v>
+        <v>-168.78899999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>8538.808964</v>
+        <v>8538.8089639999998</v>
       </c>
       <c r="AF18" s="1">
-        <v>2.371891</v>
+        <v>2.3718910000000002</v>
       </c>
       <c r="AG18" s="1">
-        <v>1359.780000</v>
+        <v>1359.78</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.919000</v>
+        <v>-178.91900000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>8549.311287</v>
+        <v>8549.3112870000004</v>
       </c>
       <c r="AK18" s="1">
-        <v>2.374809</v>
+        <v>2.3748089999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1380.400000</v>
+        <v>1380.4</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.252000</v>
+        <v>-209.25200000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>8559.802136</v>
+        <v>8559.8021360000002</v>
       </c>
       <c r="AP18" s="1">
         <v>2.377723</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1402.030000</v>
+        <v>1402.03</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.652000</v>
+        <v>-253.65199999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>8570.632777</v>
+        <v>8570.6327770000007</v>
       </c>
       <c r="AU18" s="1">
-        <v>2.380731</v>
+        <v>2.3807309999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1426.520000</v>
+        <v>1426.52</v>
       </c>
       <c r="AW18" s="1">
-        <v>-314.188000</v>
+        <v>-314.18799999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>8581.675715</v>
+        <v>8581.6757149999994</v>
       </c>
       <c r="AZ18" s="1">
-        <v>2.383799</v>
+        <v>2.3837989999999998</v>
       </c>
       <c r="BA18" s="1">
-        <v>1445.750000</v>
+        <v>1445.75</v>
       </c>
       <c r="BB18" s="1">
-        <v>-366.755000</v>
+        <v>-366.755</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>8592.367469</v>
+        <v>8592.3674690000007</v>
       </c>
       <c r="BE18" s="1">
-        <v>2.386769</v>
+        <v>2.3867690000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1530.380000</v>
+        <v>1530.38</v>
       </c>
       <c r="BG18" s="1">
-        <v>-617.744000</v>
+        <v>-617.74400000000003</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>8602.898528</v>
+        <v>8602.8985279999997</v>
       </c>
       <c r="BJ18" s="1">
         <v>2.389694</v>
       </c>
       <c r="BK18" s="1">
-        <v>1683.370000</v>
+        <v>1683.37</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1069.020000</v>
+        <v>-1069.02</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>8613.376544</v>
+        <v>8613.3765440000006</v>
       </c>
       <c r="BO18" s="1">
-        <v>2.392605</v>
+        <v>2.3926050000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1976.250000</v>
+        <v>1976.25</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1854.110000</v>
+        <v>-1854.11</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>8624.349657</v>
+        <v>8624.3496570000007</v>
       </c>
       <c r="BT18" s="1">
-        <v>2.395653</v>
+        <v>2.3956529999999998</v>
       </c>
       <c r="BU18" s="1">
-        <v>2366.240000</v>
+        <v>2366.2399999999998</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2763.780000</v>
+        <v>-2763.78</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>8635.478244</v>
+        <v>8635.4782439999999</v>
       </c>
       <c r="BY18" s="1">
-        <v>2.398744</v>
+        <v>2.3987440000000002</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2850.450000</v>
+        <v>2850.45</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3758.360000</v>
+        <v>-3758.36</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>8647.931299</v>
+        <v>8647.9312989999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>2.402203</v>
+        <v>2.4022030000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>4279.210000</v>
+        <v>4279.21</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6156.530000</v>
+        <v>-6156.53</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>8476.364630</v>
+        <v>8476.36463</v>
       </c>
       <c r="B19" s="1">
         <v>2.354546</v>
       </c>
       <c r="C19" s="1">
-        <v>1242.160000</v>
+        <v>1242.1600000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-304.259000</v>
+        <v>-304.25900000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>8486.733496</v>
+        <v>8486.7334960000007</v>
       </c>
       <c r="G19" s="1">
-        <v>2.357426</v>
+        <v>2.3574259999999998</v>
       </c>
       <c r="H19" s="1">
-        <v>1266.740000</v>
+        <v>1266.74</v>
       </c>
       <c r="I19" s="1">
-        <v>-263.744000</v>
+        <v>-263.74400000000003</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>8497.185194</v>
+        <v>8497.1851939999997</v>
       </c>
       <c r="L19" s="1">
-        <v>2.360329</v>
+        <v>2.3603290000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1303.380000</v>
+        <v>1303.3800000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-202.135000</v>
+        <v>-202.13499999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>8507.708813</v>
+        <v>8507.7088129999993</v>
       </c>
       <c r="Q19" s="1">
-        <v>2.363252</v>
+        <v>2.3632520000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>1315.540000</v>
+        <v>1315.54</v>
       </c>
       <c r="S19" s="1">
-        <v>-184.272000</v>
+        <v>-184.27199999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>8518.142654</v>
+        <v>8518.1426539999993</v>
       </c>
       <c r="V19" s="1">
-        <v>2.366151</v>
+        <v>2.3661509999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>1328.890000</v>
+        <v>1328.89</v>
       </c>
       <c r="X19" s="1">
-        <v>-171.108000</v>
+        <v>-171.108</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>8528.659825</v>
+        <v>8528.6598250000006</v>
       </c>
       <c r="AA19" s="1">
-        <v>2.369072</v>
+        <v>2.3690720000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>1346.780000</v>
+        <v>1346.78</v>
       </c>
       <c r="AC19" s="1">
-        <v>-168.703000</v>
+        <v>-168.703</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>8539.156163</v>
+        <v>8539.1561629999997</v>
       </c>
       <c r="AF19" s="1">
         <v>2.371988</v>
       </c>
       <c r="AG19" s="1">
-        <v>1359.750000</v>
+        <v>1359.75</v>
       </c>
       <c r="AH19" s="1">
-        <v>-178.833000</v>
+        <v>-178.833</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>8549.657993</v>
+        <v>8549.6579930000007</v>
       </c>
       <c r="AK19" s="1">
         <v>2.374905</v>
       </c>
       <c r="AL19" s="1">
-        <v>1380.420000</v>
+        <v>1380.42</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.253000</v>
+        <v>-209.25299999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>8560.162264</v>
+        <v>8560.1622640000005</v>
       </c>
       <c r="AP19" s="1">
-        <v>2.377823</v>
+        <v>2.3778229999999998</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1402.020000</v>
+        <v>1402.02</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.641000</v>
+        <v>-253.64099999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>8571.360906</v>
+        <v>8571.3609059999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>2.380934</v>
+        <v>2.3809339999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1426.520000</v>
+        <v>1426.52</v>
       </c>
       <c r="AW19" s="1">
-        <v>-314.183000</v>
+        <v>-314.18299999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>8582.084411</v>
+        <v>8582.0844109999998</v>
       </c>
       <c r="AZ19" s="1">
         <v>2.383912</v>
       </c>
       <c r="BA19" s="1">
-        <v>1445.740000</v>
+        <v>1445.74</v>
       </c>
       <c r="BB19" s="1">
-        <v>-366.765000</v>
+        <v>-366.76499999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>8592.727597</v>
+        <v>8592.7275969999992</v>
       </c>
       <c r="BE19" s="1">
-        <v>2.386869</v>
+        <v>2.3868689999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1530.400000</v>
+        <v>1530.4</v>
       </c>
       <c r="BG19" s="1">
-        <v>-617.701000</v>
+        <v>-617.70100000000002</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>8603.273503</v>
+        <v>8603.2735030000003</v>
       </c>
       <c r="BJ19" s="1">
-        <v>2.389798</v>
+        <v>2.3897979999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1683.350000</v>
+        <v>1683.35</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1069.020000</v>
+        <v>-1069.02</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>8613.799104</v>
+        <v>8613.7991039999997</v>
       </c>
       <c r="BO19" s="1">
         <v>2.392722</v>
       </c>
       <c r="BP19" s="1">
-        <v>1976.320000</v>
+        <v>1976.32</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1854.070000</v>
+        <v>-1854.07</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>8625.087553</v>
+        <v>8625.0875529999994</v>
       </c>
       <c r="BT19" s="1">
         <v>2.395858</v>
       </c>
       <c r="BU19" s="1">
-        <v>2366.130000</v>
+        <v>2366.13</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2764.210000</v>
+        <v>-2764.21</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>8635.610713</v>
       </c>
       <c r="BY19" s="1">
-        <v>2.398781</v>
+        <v>2.3987810000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2850.810000</v>
+        <v>2850.81</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3757.870000</v>
+        <v>-3757.87</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>8648.165412</v>
+        <v>8648.1654120000003</v>
       </c>
       <c r="CD19" s="1">
-        <v>2.402268</v>
+        <v>2.4022679999999998</v>
       </c>
       <c r="CE19" s="1">
-        <v>4282.990000</v>
+        <v>4282.99</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6153.550000</v>
+        <v>-6153.55</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>8476.707899</v>
+        <v>8476.7078990000009</v>
       </c>
       <c r="B20" s="1">
         <v>2.354641</v>
       </c>
       <c r="C20" s="1">
-        <v>1242.090000</v>
+        <v>1242.0899999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-304.383000</v>
+        <v>-304.38299999999998</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>8487.145362</v>
+        <v>8487.1453619999993</v>
       </c>
       <c r="G20" s="1">
-        <v>2.357540</v>
+        <v>2.3575400000000002</v>
       </c>
       <c r="H20" s="1">
-        <v>1268.170000</v>
+        <v>1268.17</v>
       </c>
       <c r="I20" s="1">
-        <v>-262.718000</v>
+        <v>-262.71800000000002</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>8497.468411</v>
+        <v>8497.4684109999998</v>
       </c>
       <c r="L20" s="1">
-        <v>2.360408</v>
+        <v>2.3604080000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1303.330000</v>
+        <v>1303.33</v>
       </c>
       <c r="N20" s="1">
-        <v>-202.135000</v>
+        <v>-202.13499999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>8508.002974</v>
+        <v>8508.0029740000009</v>
       </c>
       <c r="Q20" s="1">
         <v>2.363334</v>
       </c>
       <c r="R20" s="1">
-        <v>1315.550000</v>
+        <v>1315.55</v>
       </c>
       <c r="S20" s="1">
-        <v>-184.254000</v>
+        <v>-184.25399999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>8518.485919</v>
+        <v>8518.4859190000006</v>
       </c>
       <c r="V20" s="1">
-        <v>2.366246</v>
+        <v>2.3662459999999998</v>
       </c>
       <c r="W20" s="1">
-        <v>1328.880000</v>
+        <v>1328.88</v>
       </c>
       <c r="X20" s="1">
-        <v>-171.111000</v>
+        <v>-171.11099999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>8529.007522</v>
+        <v>8529.0075219999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>2.369169</v>
+        <v>2.3691689999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1346.520000</v>
+        <v>1346.52</v>
       </c>
       <c r="AC20" s="1">
-        <v>-168.813000</v>
+        <v>-168.81299999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>8539.496915</v>
+        <v>8539.4969149999997</v>
       </c>
       <c r="AF20" s="1">
-        <v>2.372082</v>
+        <v>2.3720819999999998</v>
       </c>
       <c r="AG20" s="1">
-        <v>1359.740000</v>
+        <v>1359.74</v>
       </c>
       <c r="AH20" s="1">
-        <v>-178.890000</v>
+        <v>-178.89</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>8550.358308</v>
+        <v>8550.3583080000008</v>
       </c>
       <c r="AK20" s="1">
-        <v>2.375100</v>
+        <v>2.3751000000000002</v>
       </c>
       <c r="AL20" s="1">
-        <v>1380.390000</v>
+        <v>1380.39</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.262000</v>
+        <v>-209.262</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>8560.889367</v>
+        <v>8560.8893669999998</v>
       </c>
       <c r="AP20" s="1">
-        <v>2.378025</v>
+        <v>2.3780250000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1402.000000</v>
+        <v>1402</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.615000</v>
+        <v>-253.61500000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>8571.753272</v>
+        <v>8571.7532719999999</v>
       </c>
       <c r="AU20" s="1">
         <v>2.381043</v>
       </c>
       <c r="AV20" s="1">
-        <v>1426.520000</v>
+        <v>1426.52</v>
       </c>
       <c r="AW20" s="1">
-        <v>-314.150000</v>
+        <v>-314.14999999999998</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>8582.443513</v>
+        <v>8582.4435130000002</v>
       </c>
       <c r="AZ20" s="1">
-        <v>2.384012</v>
+        <v>2.3840119999999998</v>
       </c>
       <c r="BA20" s="1">
-        <v>1445.740000</v>
+        <v>1445.74</v>
       </c>
       <c r="BB20" s="1">
-        <v>-366.759000</v>
+        <v>-366.75900000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>8593.089644</v>
+        <v>8593.0896439999997</v>
       </c>
       <c r="BE20" s="1">
-        <v>2.386969</v>
+        <v>2.3869690000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1530.400000</v>
+        <v>1530.4</v>
       </c>
       <c r="BG20" s="1">
-        <v>-617.683000</v>
+        <v>-617.68299999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>8603.983804</v>
+        <v>8603.9838039999995</v>
       </c>
       <c r="BJ20" s="1">
         <v>2.389996</v>
       </c>
       <c r="BK20" s="1">
-        <v>1683.380000</v>
+        <v>1683.38</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1069.000000</v>
+        <v>-1069</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>8614.508880</v>
+        <v>8614.5088799999994</v>
       </c>
       <c r="BO20" s="1">
         <v>2.392919</v>
       </c>
       <c r="BP20" s="1">
-        <v>1976.370000</v>
+        <v>1976.37</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1853.830000</v>
+        <v>-1853.83</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>8625.209570</v>
+        <v>8625.2095700000009</v>
       </c>
       <c r="BT20" s="1">
-        <v>2.395892</v>
+        <v>2.3958919999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>2365.960000</v>
+        <v>2365.96</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2764.510000</v>
+        <v>-2764.51</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>8636.034792</v>
+        <v>8636.0347920000004</v>
       </c>
       <c r="BY20" s="1">
-        <v>2.398899</v>
+        <v>2.3988990000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2850.780000</v>
+        <v>2850.78</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3757.410000</v>
+        <v>-3757.41</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>8648.681250</v>
+        <v>8648.6812499999996</v>
       </c>
       <c r="CD20" s="1">
-        <v>2.402411</v>
+        <v>2.4024109999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>4278.310000</v>
+        <v>4278.3100000000004</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6170.710000</v>
+        <v>-6170.71</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>8477.128469</v>
+        <v>8477.1284689999993</v>
       </c>
       <c r="B21" s="1">
-        <v>2.354758</v>
+        <v>2.3547579999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1242.210000</v>
+        <v>1242.21</v>
       </c>
       <c r="D21" s="1">
-        <v>-304.469000</v>
+        <v>-304.46899999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>8487.423954</v>
+        <v>8487.4239539999999</v>
       </c>
       <c r="G21" s="1">
         <v>2.357618</v>
       </c>
       <c r="H21" s="1">
-        <v>1267.910000</v>
+        <v>1267.9100000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-263.075000</v>
+        <v>-263.07499999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>8497.814618</v>
+        <v>8497.8146180000003</v>
       </c>
       <c r="L21" s="1">
-        <v>2.360504</v>
+        <v>2.3605040000000002</v>
       </c>
       <c r="M21" s="1">
-        <v>1303.900000</v>
+        <v>1303.9000000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-201.762000</v>
+        <v>-201.762</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>8508.351132</v>
+        <v>8508.3511319999998</v>
       </c>
       <c r="Q21" s="1">
-        <v>2.363431</v>
+        <v>2.3634309999999998</v>
       </c>
       <c r="R21" s="1">
-        <v>1315.600000</v>
+        <v>1315.6</v>
       </c>
       <c r="S21" s="1">
-        <v>-184.269000</v>
+        <v>-184.26900000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>8518.829646</v>
+        <v>8518.8296460000001</v>
       </c>
       <c r="V21" s="1">
-        <v>2.366342</v>
+        <v>2.3663419999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1328.840000</v>
+        <v>1328.84</v>
       </c>
       <c r="X21" s="1">
-        <v>-171.127000</v>
+        <v>-171.12700000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>8529.701956</v>
+        <v>8529.7019560000008</v>
       </c>
       <c r="AA21" s="1">
-        <v>2.369362</v>
+        <v>2.3693620000000002</v>
       </c>
       <c r="AB21" s="1">
-        <v>1346.700000</v>
+        <v>1346.7</v>
       </c>
       <c r="AC21" s="1">
-        <v>-168.885000</v>
+        <v>-168.88499999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>8540.180402</v>
       </c>
       <c r="AF21" s="1">
-        <v>2.372272</v>
+        <v>2.3722720000000002</v>
       </c>
       <c r="AG21" s="1">
-        <v>1359.760000</v>
+        <v>1359.76</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.872000</v>
+        <v>-178.87200000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>8550.706182</v>
+        <v>8550.7061819999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>2.375196</v>
+        <v>2.3751959999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1380.390000</v>
+        <v>1380.39</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.248000</v>
+        <v>-209.24799999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>8561.269798</v>
+        <v>8561.2697979999994</v>
       </c>
       <c r="AP21" s="1">
-        <v>2.378130</v>
+        <v>2.3781300000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1402.020000</v>
+        <v>1402.02</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.664000</v>
+        <v>-253.66399999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>8572.117800</v>
+        <v>8572.1178</v>
       </c>
       <c r="AU21" s="1">
-        <v>2.381144</v>
+        <v>2.3811439999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1426.520000</v>
+        <v>1426.52</v>
       </c>
       <c r="AW21" s="1">
-        <v>-314.166000</v>
+        <v>-314.166</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>8583.111129</v>
+        <v>8583.1111290000008</v>
       </c>
       <c r="AZ21" s="1">
         <v>2.384198</v>
       </c>
       <c r="BA21" s="1">
-        <v>1445.730000</v>
+        <v>1445.73</v>
       </c>
       <c r="BB21" s="1">
-        <v>-366.760000</v>
+        <v>-366.76</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>8593.761723</v>
+        <v>8593.7617229999996</v>
       </c>
       <c r="BE21" s="1">
-        <v>2.387156</v>
+        <v>2.3871560000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1530.370000</v>
+        <v>1530.37</v>
       </c>
       <c r="BG21" s="1">
-        <v>-617.699000</v>
+        <v>-617.69899999999996</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>8604.423758</v>
+        <v>8604.4237580000008</v>
       </c>
       <c r="BJ21" s="1">
-        <v>2.390118</v>
+        <v>2.3901180000000002</v>
       </c>
       <c r="BK21" s="1">
-        <v>1683.380000</v>
+        <v>1683.38</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1068.980000</v>
+        <v>-1068.98</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>8614.633922</v>
+        <v>8614.6339220000009</v>
       </c>
       <c r="BO21" s="1">
         <v>2.392954</v>
       </c>
       <c r="BP21" s="1">
-        <v>1976.270000</v>
+        <v>1976.27</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1853.850000</v>
+        <v>-1853.85</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>8625.623757</v>
+        <v>8625.6237569999994</v>
       </c>
       <c r="BT21" s="1">
         <v>2.396007</v>
       </c>
       <c r="BU21" s="1">
-        <v>2365.670000</v>
+        <v>2365.67</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2765.010000</v>
+        <v>-2765.01</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>8636.453412</v>
+        <v>8636.4534120000008</v>
       </c>
       <c r="BY21" s="1">
-        <v>2.399015</v>
+        <v>2.3990149999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2851.130000</v>
+        <v>2851.13</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3757.310000</v>
+        <v>-3757.31</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>8649.202049</v>
+        <v>8649.2020489999995</v>
       </c>
       <c r="CD21" s="1">
-        <v>2.402556</v>
+        <v>2.4025560000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>4299.150000</v>
+        <v>4299.1499999999996</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6157.670000</v>
+        <v>-6157.67</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>8477.404277</v>
+        <v>8477.4042769999996</v>
       </c>
       <c r="B22" s="1">
         <v>2.354835</v>
       </c>
       <c r="C22" s="1">
-        <v>1242.480000</v>
+        <v>1242.48</v>
       </c>
       <c r="D22" s="1">
-        <v>-304.458000</v>
+        <v>-304.45800000000003</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>8487.767159</v>
+        <v>8487.7671590000009</v>
       </c>
       <c r="G22" s="1">
-        <v>2.357713</v>
+        <v>2.3577129999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1267.630000</v>
+        <v>1267.6300000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-263.381000</v>
+        <v>-263.38099999999997</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>8498.160826</v>
+        <v>8498.1608259999994</v>
       </c>
       <c r="L22" s="1">
-        <v>2.360600</v>
+        <v>2.3605999999999998</v>
       </c>
       <c r="M22" s="1">
-        <v>1303.800000</v>
+        <v>1303.8</v>
       </c>
       <c r="N22" s="1">
-        <v>-202.423000</v>
+        <v>-202.423</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>8508.699356</v>
+        <v>8508.6993559999992</v>
       </c>
       <c r="Q22" s="1">
-        <v>2.363528</v>
+        <v>2.3635280000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1315.580000</v>
+        <v>1315.58</v>
       </c>
       <c r="S22" s="1">
-        <v>-184.391000</v>
+        <v>-184.39099999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>8519.515581</v>
+        <v>8519.5155809999997</v>
       </c>
       <c r="V22" s="1">
-        <v>2.366532</v>
+        <v>2.3665319999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1328.790000</v>
+        <v>1328.79</v>
       </c>
       <c r="X22" s="1">
-        <v>-170.909000</v>
+        <v>-170.90899999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>8530.064033</v>
+        <v>8530.0640330000006</v>
       </c>
       <c r="AA22" s="1">
         <v>2.369462</v>
       </c>
       <c r="AB22" s="1">
-        <v>1346.470000</v>
+        <v>1346.47</v>
       </c>
       <c r="AC22" s="1">
-        <v>-168.895000</v>
+        <v>-168.89500000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>8540.527142</v>
+        <v>8540.5271420000008</v>
       </c>
       <c r="AF22" s="1">
         <v>2.372369</v>
       </c>
       <c r="AG22" s="1">
-        <v>1359.730000</v>
+        <v>1359.73</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.867000</v>
+        <v>-178.86699999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>8551.053236</v>
+        <v>8551.0532359999997</v>
       </c>
       <c r="AK22" s="1">
-        <v>2.375293</v>
+        <v>2.3752930000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>1380.430000</v>
+        <v>1380.43</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.249000</v>
+        <v>-209.249</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>8561.627909</v>
+        <v>8561.6279090000007</v>
       </c>
       <c r="AP22" s="1">
-        <v>2.378230</v>
+        <v>2.3782299999999998</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1402.010000</v>
+        <v>1402.01</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.605000</v>
+        <v>-253.60499999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>8572.792358</v>
+        <v>8572.7923580000006</v>
       </c>
       <c r="AU22" s="1">
-        <v>2.381331</v>
+        <v>2.3813309999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1426.510000</v>
+        <v>1426.51</v>
       </c>
       <c r="AW22" s="1">
-        <v>-314.164000</v>
+        <v>-314.16399999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>8583.551577</v>
+        <v>8583.5515770000002</v>
       </c>
       <c r="AZ22" s="1">
-        <v>2.384320</v>
+        <v>2.3843200000000002</v>
       </c>
       <c r="BA22" s="1">
-        <v>1445.740000</v>
+        <v>1445.74</v>
       </c>
       <c r="BB22" s="1">
-        <v>-366.756000</v>
+        <v>-366.75599999999997</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>8594.203162</v>
+        <v>8594.2031619999998</v>
       </c>
       <c r="BE22" s="1">
-        <v>2.387279</v>
+        <v>2.3872789999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1530.370000</v>
+        <v>1530.37</v>
       </c>
       <c r="BG22" s="1">
-        <v>-617.724000</v>
+        <v>-617.72400000000005</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>8604.826972</v>
+        <v>8604.8269720000008</v>
       </c>
       <c r="BJ22" s="1">
-        <v>2.390230</v>
+        <v>2.3902299999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1683.340000</v>
+        <v>1683.34</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1069.020000</v>
+        <v>-1069.02</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>8615.038111</v>
+        <v>8615.0381109999998</v>
       </c>
       <c r="BO22" s="1">
-        <v>2.393066</v>
+        <v>2.3930660000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1976.260000</v>
+        <v>1976.26</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1853.950000</v>
+        <v>-1853.95</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>8626.054256</v>
+        <v>8626.0542559999994</v>
       </c>
       <c r="BT22" s="1">
-        <v>2.396126</v>
+        <v>2.3961260000000002</v>
       </c>
       <c r="BU22" s="1">
-        <v>2364.820000</v>
+        <v>2364.8200000000002</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2765.030000</v>
+        <v>-2765.03</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>8636.909202</v>
+        <v>8636.9092020000007</v>
       </c>
       <c r="BY22" s="1">
-        <v>2.399141</v>
+        <v>2.3991410000000002</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2850.910000</v>
+        <v>2850.91</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3758.050000</v>
+        <v>-3758.05</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>8649.761041</v>
+        <v>8649.7610409999998</v>
       </c>
       <c r="CD22" s="1">
         <v>2.402711</v>
       </c>
       <c r="CE22" s="1">
-        <v>4281.060000</v>
+        <v>4281.0600000000004</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6159.800000</v>
+        <v>-6159.8</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>8477.746484</v>
+        <v>8477.7464839999993</v>
       </c>
       <c r="B23" s="1">
-        <v>2.354930</v>
+        <v>2.35493</v>
       </c>
       <c r="C23" s="1">
-        <v>1242.090000</v>
+        <v>1242.0899999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-304.569000</v>
+        <v>-304.56900000000002</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>8488.113398</v>
+        <v>8488.1133979999995</v>
       </c>
       <c r="G23" s="1">
         <v>2.357809</v>
       </c>
       <c r="H23" s="1">
-        <v>1267.630000</v>
+        <v>1267.6300000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-263.143000</v>
+        <v>-263.14299999999997</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>8498.851754</v>
+        <v>8498.8517539999993</v>
       </c>
       <c r="L23" s="1">
         <v>2.360792</v>
       </c>
       <c r="M23" s="1">
-        <v>1303.700000</v>
+        <v>1303.7</v>
       </c>
       <c r="N23" s="1">
-        <v>-202.424000</v>
+        <v>-202.42400000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>8509.398222</v>
+        <v>8509.3982219999998</v>
       </c>
       <c r="Q23" s="1">
-        <v>2.363722</v>
+        <v>2.3637220000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>1315.550000</v>
+        <v>1315.55</v>
       </c>
       <c r="S23" s="1">
-        <v>-184.408000</v>
+        <v>-184.40799999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>8519.859836</v>
+        <v>8519.8598359999996</v>
       </c>
       <c r="V23" s="1">
         <v>2.366628</v>
       </c>
       <c r="W23" s="1">
-        <v>1328.820000</v>
+        <v>1328.82</v>
       </c>
       <c r="X23" s="1">
-        <v>-170.984000</v>
+        <v>-170.98400000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>8530.412228</v>
+        <v>8530.4122279999992</v>
       </c>
       <c r="AA23" s="1">
-        <v>2.369559</v>
+        <v>2.3695590000000002</v>
       </c>
       <c r="AB23" s="1">
-        <v>1346.640000</v>
+        <v>1346.64</v>
       </c>
       <c r="AC23" s="1">
-        <v>-168.829000</v>
+        <v>-168.82900000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>8540.871852</v>
+        <v>8540.8718520000002</v>
       </c>
       <c r="AF23" s="1">
-        <v>2.372464</v>
+        <v>2.3724639999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>1359.720000</v>
+        <v>1359.72</v>
       </c>
       <c r="AH23" s="1">
-        <v>-178.862000</v>
+        <v>-178.86199999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>8551.710430</v>
+        <v>8551.7104299999992</v>
       </c>
       <c r="AK23" s="1">
-        <v>2.375475</v>
+        <v>2.3754749999999998</v>
       </c>
       <c r="AL23" s="1">
-        <v>1380.390000</v>
+        <v>1380.39</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.254000</v>
+        <v>-209.25399999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>8562.287589</v>
+        <v>8562.2875889999996</v>
       </c>
       <c r="AP23" s="1">
-        <v>2.378413</v>
+        <v>2.3784130000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1401.970000</v>
+        <v>1401.97</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.624000</v>
+        <v>-253.624</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>8573.243223</v>
+        <v>8573.2432229999995</v>
       </c>
       <c r="AU23" s="1">
         <v>2.381456</v>
       </c>
       <c r="AV23" s="1">
-        <v>1426.490000</v>
+        <v>1426.49</v>
       </c>
       <c r="AW23" s="1">
-        <v>-314.170000</v>
+        <v>-314.17</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>8583.909192</v>
+        <v>8583.9091919999992</v>
       </c>
       <c r="AZ23" s="1">
-        <v>2.384419</v>
+        <v>2.3844189999999998</v>
       </c>
       <c r="BA23" s="1">
-        <v>1445.750000</v>
+        <v>1445.75</v>
       </c>
       <c r="BB23" s="1">
-        <v>-366.789000</v>
+        <v>-366.78899999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>8594.564283</v>
+        <v>8594.5642829999997</v>
       </c>
       <c r="BE23" s="1">
-        <v>2.387379</v>
+        <v>2.3873790000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1530.430000</v>
+        <v>1530.43</v>
       </c>
       <c r="BG23" s="1">
-        <v>-617.721000</v>
+        <v>-617.721</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>8605.203933</v>
+        <v>8605.2039330000007</v>
       </c>
       <c r="BJ23" s="1">
-        <v>2.390334</v>
+        <v>2.3903340000000002</v>
       </c>
       <c r="BK23" s="1">
-        <v>1683.360000</v>
+        <v>1683.36</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1068.930000</v>
+        <v>-1068.93</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>8615.469632</v>
+        <v>8615.4696320000003</v>
       </c>
       <c r="BO23" s="1">
         <v>2.393186</v>
       </c>
       <c r="BP23" s="1">
-        <v>1976.330000</v>
+        <v>1976.33</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1853.880000</v>
+        <v>-1853.88</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>8626.481311</v>
+        <v>8626.4813109999996</v>
       </c>
       <c r="BT23" s="1">
         <v>2.396245</v>
       </c>
       <c r="BU23" s="1">
-        <v>2364.640000</v>
+        <v>2364.64</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2765.320000</v>
+        <v>-2765.32</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>8637.357089</v>
+        <v>8637.3570889999992</v>
       </c>
       <c r="BY23" s="1">
-        <v>2.399266</v>
+        <v>2.3992659999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2849.770000</v>
+        <v>2849.77</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3757.290000</v>
+        <v>-3757.29</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>8650.313088</v>
+        <v>8650.3130880000008</v>
       </c>
       <c r="CD23" s="1">
-        <v>2.402865</v>
+        <v>2.4028649999999998</v>
       </c>
       <c r="CE23" s="1">
-        <v>4296.650000</v>
+        <v>4296.6499999999996</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6158.450000</v>
+        <v>-6158.45</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>8478.419556</v>
+        <v>8478.4195560000007</v>
       </c>
       <c r="B24" s="1">
-        <v>2.355117</v>
+        <v>2.3551169999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1242.140000</v>
+        <v>1242.1400000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-304.496000</v>
+        <v>-304.49599999999998</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>8488.801814</v>
+        <v>8488.8018140000004</v>
       </c>
       <c r="G24" s="1">
-        <v>2.358001</v>
+        <v>2.3580009999999998</v>
       </c>
       <c r="H24" s="1">
-        <v>1267.870000</v>
+        <v>1267.8699999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-263.191000</v>
+        <v>-263.19099999999997</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>8499.195019</v>
+        <v>8499.1950190000007</v>
       </c>
       <c r="L24" s="1">
-        <v>2.360888</v>
+        <v>2.3608880000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1303.450000</v>
+        <v>1303.45</v>
       </c>
       <c r="N24" s="1">
-        <v>-201.909000</v>
+        <v>-201.90899999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>8509.743402</v>
+        <v>8509.7434020000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>2.363818</v>
+        <v>2.3638180000000002</v>
       </c>
       <c r="R24" s="1">
-        <v>1315.460000</v>
+        <v>1315.46</v>
       </c>
       <c r="S24" s="1">
-        <v>-184.220000</v>
+        <v>-184.22</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>8520.203036</v>
+        <v>8520.2030360000008</v>
       </c>
       <c r="V24" s="1">
-        <v>2.366723</v>
+        <v>2.3667229999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>1329.010000</v>
+        <v>1329.01</v>
       </c>
       <c r="X24" s="1">
-        <v>-171.132000</v>
+        <v>-171.13200000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>8531.064926</v>
+        <v>8531.0649259999991</v>
       </c>
       <c r="AA24" s="1">
-        <v>2.369740</v>
+        <v>2.3697400000000002</v>
       </c>
       <c r="AB24" s="1">
-        <v>1346.760000</v>
+        <v>1346.76</v>
       </c>
       <c r="AC24" s="1">
-        <v>-168.820000</v>
+        <v>-168.82</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>8541.518112</v>
+        <v>8541.5181119999997</v>
       </c>
       <c r="AF24" s="1">
-        <v>2.372644</v>
+        <v>2.3726440000000002</v>
       </c>
       <c r="AG24" s="1">
-        <v>1359.730000</v>
+        <v>1359.73</v>
       </c>
       <c r="AH24" s="1">
-        <v>-178.867000</v>
+        <v>-178.86699999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>8552.097777</v>
+        <v>8552.0977770000009</v>
       </c>
       <c r="AK24" s="1">
-        <v>2.375583</v>
+        <v>2.3755829999999998</v>
       </c>
       <c r="AL24" s="1">
-        <v>1380.400000</v>
+        <v>1380.4</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.238000</v>
+        <v>-209.238</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>8562.709684</v>
+        <v>8562.7096839999995</v>
       </c>
       <c r="AP24" s="1">
-        <v>2.378530</v>
+        <v>2.37853</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1402.000000</v>
+        <v>1402</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.636000</v>
+        <v>-253.636</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>8573.610293</v>
+        <v>8573.6102929999997</v>
       </c>
       <c r="AU24" s="1">
-        <v>2.381558</v>
+        <v>2.3815580000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1426.500000</v>
+        <v>1426.5</v>
       </c>
       <c r="AW24" s="1">
-        <v>-314.180000</v>
+        <v>-314.18</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>8584.268295</v>
+        <v>8584.2682949999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>2.384519</v>
+        <v>2.3845190000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1445.720000</v>
+        <v>1445.72</v>
       </c>
       <c r="BB24" s="1">
-        <v>-366.758000</v>
+        <v>-366.75799999999998</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>8594.922393</v>
+        <v>8594.9223930000007</v>
       </c>
       <c r="BE24" s="1">
-        <v>2.387478</v>
+        <v>2.3874780000000002</v>
       </c>
       <c r="BF24" s="1">
-        <v>1530.370000</v>
+        <v>1530.37</v>
       </c>
       <c r="BG24" s="1">
-        <v>-617.704000</v>
+        <v>-617.70399999999995</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>8605.621595</v>
+        <v>8605.6215950000005</v>
       </c>
       <c r="BJ24" s="1">
-        <v>2.390450</v>
+        <v>2.39045</v>
       </c>
       <c r="BK24" s="1">
-        <v>1683.320000</v>
+        <v>1683.32</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1068.920000</v>
+        <v>-1068.92</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>8616.254301</v>
+        <v>8616.2543010000009</v>
       </c>
       <c r="BO24" s="1">
-        <v>2.393404</v>
+        <v>2.3934039999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1976.270000</v>
+        <v>1976.27</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1853.830000</v>
+        <v>-1853.83</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>8626.893487</v>
+        <v>8626.8934869999994</v>
       </c>
       <c r="BT24" s="1">
-        <v>2.396359</v>
+        <v>2.3963589999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>2364.070000</v>
+        <v>2364.0700000000002</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2764.980000</v>
+        <v>-2764.98</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>8637.789600</v>
+        <v>8637.7896000000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>2.399386</v>
+        <v>2.3993859999999998</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2849.820000</v>
+        <v>2849.82</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3757.710000</v>
+        <v>-3757.71</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>8650.820001</v>
@@ -6375,529 +6791,530 @@
         <v>2.403006</v>
       </c>
       <c r="CE24" s="1">
-        <v>4298.690000</v>
+        <v>4298.6899999999996</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6157.980000</v>
+        <v>-6157.98</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>8478.771742</v>
+        <v>8478.7717420000008</v>
       </c>
       <c r="B25" s="1">
-        <v>2.355214</v>
+        <v>2.3552140000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1242.360000</v>
+        <v>1242.3599999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-304.539000</v>
+        <v>-304.53899999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>8489.145091</v>
+        <v>8489.1450910000003</v>
       </c>
       <c r="G25" s="1">
-        <v>2.358096</v>
+        <v>2.3580960000000002</v>
       </c>
       <c r="H25" s="1">
-        <v>1267.910000</v>
+        <v>1267.9100000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-263.045000</v>
+        <v>-263.04500000000002</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>8499.544003</v>
+        <v>8499.5440030000009</v>
       </c>
       <c r="L25" s="1">
-        <v>2.360984</v>
+        <v>2.3609840000000002</v>
       </c>
       <c r="M25" s="1">
-        <v>1303.600000</v>
+        <v>1303.5999999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-201.860000</v>
+        <v>-201.86</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>8510.094106</v>
+        <v>8510.0941060000005</v>
       </c>
       <c r="Q25" s="1">
         <v>2.363915</v>
       </c>
       <c r="R25" s="1">
-        <v>1315.580000</v>
+        <v>1315.58</v>
       </c>
       <c r="S25" s="1">
-        <v>-184.286000</v>
+        <v>-184.286</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>8520.844859</v>
+        <v>8520.8448590000007</v>
       </c>
       <c r="V25" s="1">
-        <v>2.366901</v>
+        <v>2.3669009999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>1328.720000</v>
+        <v>1328.72</v>
       </c>
       <c r="X25" s="1">
-        <v>-170.609000</v>
+        <v>-170.60900000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>8531.457859</v>
+        <v>8531.4578590000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>2.369849</v>
+        <v>2.3698489999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1346.670000</v>
+        <v>1346.67</v>
       </c>
       <c r="AC25" s="1">
-        <v>-168.603000</v>
+        <v>-168.60300000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>8541.903007</v>
+        <v>8541.9030070000008</v>
       </c>
       <c r="AF25" s="1">
-        <v>2.372751</v>
+        <v>2.3727510000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1359.720000</v>
+        <v>1359.72</v>
       </c>
       <c r="AH25" s="1">
-        <v>-178.906000</v>
+        <v>-178.90600000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>8552.444978</v>
+        <v>8552.4449779999995</v>
       </c>
       <c r="AK25" s="1">
-        <v>2.375679</v>
+        <v>2.3756789999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1380.390000</v>
+        <v>1380.39</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.204000</v>
+        <v>-209.20400000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>8563.094084</v>
+        <v>8563.0940840000003</v>
       </c>
       <c r="AP25" s="1">
-        <v>2.378637</v>
+        <v>2.3786369999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1402.000000</v>
+        <v>1402</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.642000</v>
+        <v>-253.642</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>8573.972837</v>
+        <v>8573.9728369999993</v>
       </c>
       <c r="AU25" s="1">
         <v>2.381659</v>
       </c>
       <c r="AV25" s="1">
-        <v>1426.520000</v>
+        <v>1426.52</v>
       </c>
       <c r="AW25" s="1">
-        <v>-314.173000</v>
+        <v>-314.173</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>8584.686553</v>
+        <v>8584.6865529999995</v>
       </c>
       <c r="AZ25" s="1">
-        <v>2.384635</v>
+        <v>2.3846349999999998</v>
       </c>
       <c r="BA25" s="1">
-        <v>1445.710000</v>
+        <v>1445.71</v>
       </c>
       <c r="BB25" s="1">
-        <v>-366.742000</v>
+        <v>-366.74200000000002</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>8595.339497</v>
+        <v>8595.3394970000008</v>
       </c>
       <c r="BE25" s="1">
         <v>2.387594</v>
       </c>
       <c r="BF25" s="1">
-        <v>1530.370000</v>
+        <v>1530.37</v>
       </c>
       <c r="BG25" s="1">
-        <v>-617.701000</v>
+        <v>-617.70100000000002</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>8605.980667</v>
+        <v>8605.9806669999998</v>
       </c>
       <c r="BJ25" s="1">
-        <v>2.390550</v>
+        <v>2.3905500000000002</v>
       </c>
       <c r="BK25" s="1">
-        <v>1683.360000</v>
+        <v>1683.36</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1068.930000</v>
+        <v>-1068.93</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>8616.651102</v>
+        <v>8616.6511019999998</v>
       </c>
       <c r="BO25" s="1">
-        <v>2.393514</v>
+        <v>2.3935140000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1976.240000</v>
+        <v>1976.24</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1853.820000</v>
+        <v>-1853.82</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>8627.325006</v>
+        <v>8627.3250059999991</v>
       </c>
       <c r="BT25" s="1">
-        <v>2.396479</v>
+        <v>2.3964789999999998</v>
       </c>
       <c r="BU25" s="1">
-        <v>2363.720000</v>
+        <v>2363.7199999999998</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2765.440000</v>
+        <v>-2765.44</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>8638.206240</v>
+        <v>8638.2062399999995</v>
       </c>
       <c r="BY25" s="1">
         <v>2.399502</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2850.150000</v>
+        <v>2850.15</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3758.090000</v>
+        <v>-3758.09</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>8651.340832</v>
+        <v>8651.3408319999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>2.403150</v>
+        <v>2.4031500000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>4281.540000</v>
+        <v>4281.54</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6154.760000</v>
+        <v>-6154.76</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>8479.115443</v>
+        <v>8479.1154430000006</v>
       </c>
       <c r="B26" s="1">
-        <v>2.355310</v>
+        <v>2.3553099999999998</v>
       </c>
       <c r="C26" s="1">
-        <v>1242.380000</v>
+        <v>1242.3800000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-304.422000</v>
+        <v>-304.42200000000003</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>8489.490791</v>
+        <v>8489.4907910000002</v>
       </c>
       <c r="G26" s="1">
-        <v>2.358192</v>
+        <v>2.3581919999999998</v>
       </c>
       <c r="H26" s="1">
-        <v>1267.250000</v>
+        <v>1267.25</v>
       </c>
       <c r="I26" s="1">
-        <v>-263.410000</v>
+        <v>-263.41000000000003</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>8500.189991</v>
+        <v>8500.1899909999993</v>
       </c>
       <c r="L26" s="1">
         <v>2.361164</v>
       </c>
       <c r="M26" s="1">
-        <v>1304.000000</v>
+        <v>1304</v>
       </c>
       <c r="N26" s="1">
-        <v>-201.931000</v>
+        <v>-201.93100000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>8510.762184</v>
+        <v>8510.7621839999993</v>
       </c>
       <c r="Q26" s="1">
-        <v>2.364101</v>
+        <v>2.3641009999999998</v>
       </c>
       <c r="R26" s="1">
-        <v>1315.600000</v>
+        <v>1315.6</v>
       </c>
       <c r="S26" s="1">
-        <v>-184.321000</v>
+        <v>-184.321</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>8521.233228</v>
+        <v>8521.2332279999991</v>
       </c>
       <c r="V26" s="1">
-        <v>2.367009</v>
+        <v>2.3670089999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1328.810000</v>
+        <v>1328.81</v>
       </c>
       <c r="X26" s="1">
-        <v>-170.700000</v>
+        <v>-170.7</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>8531.804989</v>
+        <v>8531.8049890000002</v>
       </c>
       <c r="AA26" s="1">
-        <v>2.369946</v>
+        <v>2.3699460000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>1346.920000</v>
+        <v>1346.92</v>
       </c>
       <c r="AC26" s="1">
-        <v>-168.760000</v>
+        <v>-168.76</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>8542.244288</v>
+        <v>8542.2442879999999</v>
       </c>
       <c r="AF26" s="1">
         <v>2.372846</v>
       </c>
       <c r="AG26" s="1">
-        <v>1359.690000</v>
+        <v>1359.69</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.858000</v>
+        <v>-178.858</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>8552.795153</v>
+        <v>8552.7951529999991</v>
       </c>
       <c r="AK26" s="1">
-        <v>2.375776</v>
+        <v>2.3757760000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1380.420000</v>
+        <v>1380.42</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.280000</v>
+        <v>-209.28</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>8563.453188</v>
+        <v>8563.4531879999995</v>
       </c>
       <c r="AP26" s="1">
-        <v>2.378737</v>
+        <v>2.3787370000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1402.000000</v>
+        <v>1402</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.635000</v>
+        <v>-253.63499999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>8574.390965</v>
+        <v>8574.3909650000005</v>
       </c>
       <c r="AU26" s="1">
-        <v>2.381775</v>
+        <v>2.3817750000000002</v>
       </c>
       <c r="AV26" s="1">
-        <v>1426.490000</v>
+        <v>1426.49</v>
       </c>
       <c r="AW26" s="1">
-        <v>-314.159000</v>
+        <v>-314.15899999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>8584.986525</v>
+        <v>8584.9865250000003</v>
       </c>
       <c r="AZ26" s="1">
-        <v>2.384718</v>
+        <v>2.3847179999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1445.720000</v>
+        <v>1445.72</v>
       </c>
       <c r="BB26" s="1">
-        <v>-366.776000</v>
+        <v>-366.77600000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>8595.644040</v>
+        <v>8595.6440399999992</v>
       </c>
       <c r="BE26" s="1">
-        <v>2.387679</v>
+        <v>2.3876789999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1530.390000</v>
+        <v>1530.39</v>
       </c>
       <c r="BG26" s="1">
-        <v>-617.729000</v>
+        <v>-617.72900000000004</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>8606.355674</v>
+        <v>8606.3556740000004</v>
       </c>
       <c r="BJ26" s="1">
-        <v>2.390654</v>
+        <v>2.3906540000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1683.400000</v>
+        <v>1683.4</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1068.920000</v>
+        <v>-1068.92</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>8617.065757</v>
+        <v>8617.0657570000003</v>
       </c>
       <c r="BO26" s="1">
-        <v>2.393629</v>
+        <v>2.3936289999999998</v>
       </c>
       <c r="BP26" s="1">
-        <v>1976.210000</v>
+        <v>1976.21</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1853.830000</v>
+        <v>-1853.83</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>8627.753086</v>
+        <v>8627.7530860000006</v>
       </c>
       <c r="BT26" s="1">
         <v>2.396598</v>
       </c>
       <c r="BU26" s="1">
-        <v>2363.330000</v>
+        <v>2363.33</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2764.840000</v>
+        <v>-2764.84</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>8638.629824</v>
+        <v>8638.6298239999996</v>
       </c>
       <c r="BY26" s="1">
-        <v>2.399619</v>
+        <v>2.3996189999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2850.290000</v>
+        <v>2850.29</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3756.970000</v>
+        <v>-3756.97</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>8651.857658</v>
+        <v>8651.8576580000008</v>
       </c>
       <c r="CD26" s="1">
-        <v>2.403294</v>
+        <v>2.4032939999999998</v>
       </c>
       <c r="CE26" s="1">
-        <v>4289.310000</v>
+        <v>4289.3100000000004</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6150.030000</v>
+        <v>-6150.03</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>